--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_1_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_1_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1573115.528742682</v>
+        <v>1571420.670508789</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1287228.184107716</v>
+        <v>1287228.184107715</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673439</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>82.05707201220442</v>
       </c>
       <c r="H2" t="n">
-        <v>72.47049842454874</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -707,10 +707,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>111.1070543449885</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>59.82509831376831</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="H4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>96.13285199009043</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>64.13863269867674</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.923892307867391</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>153.880440439332</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>28.2881950908333</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1175,25 +1175,25 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>68.21015448122992</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>3.54573294646922</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>90.26975814551395</v>
       </c>
     </row>
     <row r="10">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>357.7795714149544</v>
       </c>
       <c r="C11" t="n">
-        <v>340.3186215224814</v>
+        <v>185.5165912221465</v>
       </c>
       <c r="D11" t="n">
-        <v>329.7287713721568</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>356.9760998237356</v>
       </c>
       <c r="F11" t="n">
-        <v>381.9217754931853</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>387.9966247312784</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>290.4347245022875</v>
       </c>
       <c r="I11" t="n">
-        <v>67.9644143398834</v>
+        <v>94.85220997855063</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>130.4731875638754</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>187.8463886171959</v>
       </c>
       <c r="U11" t="n">
         <v>226.2032352564839</v>
@@ -1436,7 +1436,7 @@
         <v>344.7768304299429</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>361.2836684075274</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I12" t="n">
-        <v>46.07197699567759</v>
+        <v>46.07197699567757</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>22.02995793686988</v>
+        <v>22.02995793686985</v>
       </c>
       <c r="S12" t="n">
         <v>148.3099331995005</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.28187587460408</v>
+        <v>154.8777099334111</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>120.4667777744051</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>141.9817535136542</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.7708127470152</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>104.9044813177994</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,10 +1582,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>261.3072160754405</v>
+        <v>43.68471754173385</v>
       </c>
       <c r="V13" t="n">
-        <v>227.1833730753019</v>
+        <v>227.1833730753018</v>
       </c>
       <c r="W13" t="n">
         <v>261.5687280880649</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>193.6303831035686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>357.7795714149543</v>
+        <v>357.7795714149544</v>
       </c>
       <c r="C14" t="n">
-        <v>340.3186215224813</v>
+        <v>268.959606009611</v>
       </c>
       <c r="D14" t="n">
-        <v>329.7287713721567</v>
+        <v>329.7287713721568</v>
       </c>
       <c r="E14" t="n">
-        <v>356.9760998237355</v>
+        <v>356.9760998237356</v>
       </c>
       <c r="F14" t="n">
-        <v>381.9217754931852</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>387.9966247312784</v>
       </c>
       <c r="H14" t="n">
-        <v>290.4347245022875</v>
+        <v>290.4347245022876</v>
       </c>
       <c r="I14" t="n">
-        <v>94.8522099785506</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>130.4731875638753</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>70.67410459032438</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>226.2032352564838</v>
+        <v>226.2032352564839</v>
       </c>
       <c r="V14" t="n">
-        <v>302.7979882216086</v>
+        <v>302.7979882216088</v>
       </c>
       <c r="W14" t="n">
-        <v>324.2866984688868</v>
+        <v>324.2866984688869</v>
       </c>
       <c r="X14" t="n">
-        <v>344.7768304299428</v>
+        <v>344.7768304299429</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>361.2836684075274</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22.02995793686989</v>
+        <v>22.02995793686988</v>
       </c>
       <c r="S15" t="n">
         <v>148.3099331995005</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>154.877709933411</v>
+        <v>154.8777099334111</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>123.6612027696861</v>
+        <v>123.6612027696862</v>
       </c>
       <c r="E16" t="n">
-        <v>6.986229595961308</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>120.4667777744051</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1813,22 +1813,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>180.6773288969402</v>
+        <v>180.6773288969403</v>
       </c>
       <c r="T16" t="n">
-        <v>198.4837816320204</v>
+        <v>198.4837816320205</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>227.1833730753017</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>261.5687280880647</v>
+        <v>174.5161678444107</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>200.755385140511</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>232.671219357909</v>
       </c>
       <c r="I17" t="n">
-        <v>37.08870483417213</v>
+        <v>37.08870483417209</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>72.70968241949687</v>
+        <v>72.70968241949684</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0828834728174</v>
+        <v>130.0828834728173</v>
       </c>
       <c r="U17" t="n">
         <v>168.4397301121053</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>22.02995793686989</v>
+        <v>22.02995793686988</v>
       </c>
       <c r="S18" t="n">
         <v>148.3099331995005</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>97.11420478903254</v>
       </c>
       <c r="C19" t="n">
-        <v>84.52904570572311</v>
+        <v>84.52904570572308</v>
       </c>
       <c r="D19" t="n">
-        <v>65.89769762530763</v>
+        <v>65.8976976253076</v>
       </c>
       <c r="E19" t="n">
-        <v>63.71618725366444</v>
+        <v>63.71618725366442</v>
       </c>
       <c r="F19" t="n">
-        <v>62.70327263002652</v>
+        <v>62.70327263002649</v>
       </c>
       <c r="G19" t="n">
-        <v>84.21824836927566</v>
+        <v>84.21824836927563</v>
       </c>
       <c r="H19" t="n">
-        <v>70.12988281307803</v>
+        <v>70.129882813078</v>
       </c>
       <c r="I19" t="n">
-        <v>41.00730760263666</v>
+        <v>41.00730760263663</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.14097617342084</v>
+        <v>47.14097617342081</v>
       </c>
       <c r="S19" t="n">
-        <v>90.65999070566015</v>
+        <v>122.9138237525617</v>
       </c>
       <c r="T19" t="n">
         <v>140.7202764876419</v>
@@ -2065,7 +2065,7 @@
         <v>203.8052229436863</v>
       </c>
       <c r="X19" t="n">
-        <v>142.9918799961324</v>
+        <v>13.62384216019851</v>
       </c>
       <c r="Y19" t="n">
         <v>135.86687795919</v>
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>300.0160662705757</v>
+        <v>300.0160662705758</v>
       </c>
       <c r="C20" t="n">
         <v>282.5551163781028</v>
       </c>
       <c r="D20" t="n">
-        <v>271.9652662277781</v>
+        <v>271.9652662277782</v>
       </c>
       <c r="E20" t="n">
-        <v>299.2125946793569</v>
+        <v>299.212594679357</v>
       </c>
       <c r="F20" t="n">
         <v>324.1582703488066</v>
       </c>
       <c r="G20" t="n">
-        <v>330.2331195868997</v>
+        <v>330.2331195868998</v>
       </c>
       <c r="H20" t="n">
         <v>232.6712193579089</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>22.02995793686989</v>
+        <v>22.02995793686988</v>
       </c>
       <c r="S21" t="n">
         <v>148.3099331995005</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.11420478903247</v>
+        <v>97.11420478903248</v>
       </c>
       <c r="C22" t="n">
-        <v>84.52904570572301</v>
+        <v>84.52904570572302</v>
       </c>
       <c r="D22" t="n">
-        <v>65.89769762530753</v>
+        <v>65.89769762530754</v>
       </c>
       <c r="E22" t="n">
-        <v>63.71618725366434</v>
+        <v>63.71618725366436</v>
       </c>
       <c r="F22" t="n">
-        <v>62.70327263002642</v>
+        <v>3.465117607170589</v>
       </c>
       <c r="G22" t="n">
-        <v>84.21824836927556</v>
+        <v>84.21824836927557</v>
       </c>
       <c r="H22" t="n">
-        <v>70.12988281307794</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>41.00730760263656</v>
+        <v>41.00730760263657</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>140.7202764876418</v>
       </c>
       <c r="U22" t="n">
-        <v>74.17567309512903</v>
+        <v>203.5437109310618</v>
       </c>
       <c r="V22" t="n">
         <v>169.4198679309232</v>
@@ -2302,7 +2302,7 @@
         <v>203.8052229436862</v>
       </c>
       <c r="X22" t="n">
-        <v>142.9918799961323</v>
+        <v>142.9918799961324</v>
       </c>
       <c r="Y22" t="n">
         <v>135.86687795919</v>
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>300.0160662705757</v>
+        <v>300.0160662705758</v>
       </c>
       <c r="C23" t="n">
         <v>282.5551163781028</v>
       </c>
       <c r="D23" t="n">
-        <v>271.9652662277781</v>
+        <v>271.9652662277782</v>
       </c>
       <c r="E23" t="n">
-        <v>299.2125946793569</v>
+        <v>299.212594679357</v>
       </c>
       <c r="F23" t="n">
         <v>324.1582703488066</v>
       </c>
       <c r="G23" t="n">
-        <v>330.2331195868997</v>
+        <v>330.2331195868998</v>
       </c>
       <c r="H23" t="n">
         <v>232.6712193579089</v>
       </c>
       <c r="I23" t="n">
-        <v>37.08870483417209</v>
+        <v>37.08870483417211</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>72.7096824194968</v>
+        <v>72.70968241949683</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0828834728165</v>
+        <v>130.0828834728173</v>
       </c>
       <c r="U23" t="n">
-        <v>168.4397301121052</v>
+        <v>168.4397301121053</v>
       </c>
       <c r="V23" t="n">
         <v>245.0344830772301</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.11420478903247</v>
+        <v>97.11420478903248</v>
       </c>
       <c r="C25" t="n">
-        <v>84.52904570572301</v>
+        <v>84.52904570572302</v>
       </c>
       <c r="D25" t="n">
-        <v>65.89769762530753</v>
+        <v>65.89769762530754</v>
       </c>
       <c r="E25" t="n">
-        <v>63.71618725366434</v>
+        <v>63.71618725366436</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>62.70327263002643</v>
       </c>
       <c r="G25" t="n">
-        <v>84.21824836927556</v>
+        <v>84.21824836927557</v>
       </c>
       <c r="H25" t="n">
-        <v>3.465117607170729</v>
+        <v>70.12988281307797</v>
       </c>
       <c r="I25" t="n">
-        <v>41.00730760263659</v>
+        <v>41.0073076026366</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.14097617342077</v>
+        <v>47.14097617342078</v>
       </c>
       <c r="S25" t="n">
         <v>122.9138237525616</v>
@@ -2539,10 +2539,10 @@
         <v>203.8052229436862</v>
       </c>
       <c r="X25" t="n">
-        <v>142.9918799961323</v>
+        <v>142.9918799961324</v>
       </c>
       <c r="Y25" t="n">
-        <v>135.86687795919</v>
+        <v>6.498840123256204</v>
       </c>
     </row>
     <row r="26">
@@ -2731,7 +2731,7 @@
         <v>70.12988281307794</v>
       </c>
       <c r="I28" t="n">
-        <v>41.00730760263657</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.14097617342075</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>122.9138237525616</v>
       </c>
       <c r="T28" t="n">
-        <v>134.2660624042703</v>
+        <v>140.7202764876418</v>
       </c>
       <c r="U28" t="n">
         <v>203.5437109310618</v>
@@ -2779,7 +2779,7 @@
         <v>142.9918799961323</v>
       </c>
       <c r="Y28" t="n">
-        <v>135.8668779591899</v>
+        <v>94.64712389931384</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>300.0160662705758</v>
+        <v>300.0160662705757</v>
       </c>
       <c r="C29" t="n">
-        <v>282.5551163781028</v>
+        <v>282.5551163781027</v>
       </c>
       <c r="D29" t="n">
-        <v>271.9652662277782</v>
+        <v>271.9652662277781</v>
       </c>
       <c r="E29" t="n">
-        <v>299.212594679357</v>
+        <v>299.2125946793569</v>
       </c>
       <c r="F29" t="n">
-        <v>324.1582703488067</v>
+        <v>324.1582703488066</v>
       </c>
       <c r="G29" t="n">
-        <v>330.2331195868998</v>
+        <v>330.2331195868997</v>
       </c>
       <c r="H29" t="n">
-        <v>232.671219357909</v>
+        <v>232.6712193579089</v>
       </c>
       <c r="I29" t="n">
-        <v>37.08870483417216</v>
+        <v>37.08870483417208</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>72.70968241949689</v>
+        <v>72.7096824194968</v>
       </c>
       <c r="T29" t="n">
-        <v>130.0828834728174</v>
+        <v>130.0828834728173</v>
       </c>
       <c r="U29" t="n">
-        <v>168.4397301121053</v>
+        <v>168.4397301121052</v>
       </c>
       <c r="V29" t="n">
-        <v>245.0344830772302</v>
+        <v>245.03448307723</v>
       </c>
       <c r="W29" t="n">
-        <v>266.5231933245083</v>
+        <v>266.5231933245082</v>
       </c>
       <c r="X29" t="n">
-        <v>287.0133252855643</v>
+        <v>287.0133252855642</v>
       </c>
       <c r="Y29" t="n">
-        <v>303.5201632631488</v>
+        <v>303.5201632631487</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>97.11420478903246</v>
       </c>
       <c r="C31" t="n">
-        <v>84.52904570572308</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>65.8976976253076</v>
+        <v>65.89769762530752</v>
       </c>
       <c r="E31" t="n">
-        <v>63.71618725366442</v>
+        <v>18.87719512345386</v>
       </c>
       <c r="F31" t="n">
-        <v>30.44943958312415</v>
+        <v>62.7032726300264</v>
       </c>
       <c r="G31" t="n">
-        <v>84.21824836927563</v>
+        <v>84.21824836927554</v>
       </c>
       <c r="H31" t="n">
-        <v>70.12988281307801</v>
+        <v>70.12988281307793</v>
       </c>
       <c r="I31" t="n">
-        <v>41.00730760263665</v>
+        <v>41.00730760263657</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.14097617342084</v>
+        <v>47.14097617342075</v>
       </c>
       <c r="S31" t="n">
-        <v>122.9138237525617</v>
+        <v>122.9138237525616</v>
       </c>
       <c r="T31" t="n">
-        <v>140.7202764876419</v>
+        <v>140.7202764876418</v>
       </c>
       <c r="U31" t="n">
-        <v>203.5437109310619</v>
+        <v>203.5437109310618</v>
       </c>
       <c r="V31" t="n">
-        <v>169.4198679309233</v>
+        <v>169.4198679309231</v>
       </c>
       <c r="W31" t="n">
-        <v>203.8052229436863</v>
+        <v>203.8052229436861</v>
       </c>
       <c r="X31" t="n">
-        <v>142.9918799961324</v>
+        <v>142.9918799961323</v>
       </c>
       <c r="Y31" t="n">
-        <v>135.86687795919</v>
+        <v>135.8668779591899</v>
       </c>
     </row>
     <row r="32">
@@ -3202,7 +3202,7 @@
         <v>84.21824836927554</v>
       </c>
       <c r="H34" t="n">
-        <v>63.67566872970682</v>
+        <v>70.12988281307794</v>
       </c>
       <c r="I34" t="n">
         <v>41.00730760263657</v>
@@ -3235,7 +3235,7 @@
         <v>47.14097617342075</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>122.9138237525616</v>
       </c>
       <c r="T34" t="n">
         <v>140.7202764876418</v>
@@ -3250,7 +3250,7 @@
         <v>203.8052229436861</v>
       </c>
       <c r="X34" t="n">
-        <v>142.9918799961323</v>
+        <v>13.62384216019955</v>
       </c>
       <c r="Y34" t="n">
         <v>135.8668779591899</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>300.0160662705758</v>
+        <v>300.0160662705757</v>
       </c>
       <c r="C35" t="n">
-        <v>282.5551163781028</v>
+        <v>282.5551163781027</v>
       </c>
       <c r="D35" t="n">
-        <v>271.9652662277782</v>
+        <v>271.9652662277781</v>
       </c>
       <c r="E35" t="n">
-        <v>299.212594679357</v>
+        <v>299.2125946793569</v>
       </c>
       <c r="F35" t="n">
         <v>324.1582703488066</v>
       </c>
       <c r="G35" t="n">
-        <v>330.2331195868998</v>
+        <v>330.2331195868997</v>
       </c>
       <c r="H35" t="n">
         <v>232.6712193579089</v>
       </c>
       <c r="I35" t="n">
-        <v>37.08870483417213</v>
+        <v>37.08870483417208</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>72.70968241949684</v>
+        <v>72.70968241949679</v>
       </c>
       <c r="T35" t="n">
         <v>130.0828834728173</v>
       </c>
       <c r="U35" t="n">
-        <v>168.4397301121053</v>
+        <v>168.4397301121052</v>
       </c>
       <c r="V35" t="n">
-        <v>245.0344830772301</v>
+        <v>245.03448307723</v>
       </c>
       <c r="W35" t="n">
         <v>266.5231933245082</v>
@@ -3332,7 +3332,7 @@
         <v>287.0133252855642</v>
       </c>
       <c r="Y35" t="n">
-        <v>303.5201632631488</v>
+        <v>303.5201632631487</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.11420478903251</v>
+        <v>97.11420478903246</v>
       </c>
       <c r="C37" t="n">
-        <v>84.52904570572305</v>
+        <v>84.52904570572299</v>
       </c>
       <c r="D37" t="n">
-        <v>65.89769762530757</v>
+        <v>65.89769762530752</v>
       </c>
       <c r="E37" t="n">
-        <v>63.71618725366439</v>
+        <v>63.71618725366433</v>
       </c>
       <c r="F37" t="n">
-        <v>62.70327263002646</v>
+        <v>62.7032726300264</v>
       </c>
       <c r="G37" t="n">
-        <v>84.2182483692756</v>
+        <v>84.21824836927554</v>
       </c>
       <c r="H37" t="n">
-        <v>70.129882813078</v>
+        <v>70.12988281307794</v>
       </c>
       <c r="I37" t="n">
-        <v>41.00730760263663</v>
+        <v>41.00730760263657</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>47.14097617342081</v>
+        <v>47.14097617342075</v>
       </c>
       <c r="S37" t="n">
-        <v>122.9138237525617</v>
+        <v>122.9138237525616</v>
       </c>
       <c r="T37" t="n">
-        <v>140.7202764876419</v>
+        <v>11.35223865170968</v>
       </c>
       <c r="U37" t="n">
         <v>203.5437109310618</v>
       </c>
       <c r="V37" t="n">
-        <v>169.4198679309232</v>
+        <v>169.4198679309231</v>
       </c>
       <c r="W37" t="n">
-        <v>74.43718510775243</v>
+        <v>203.8052229436861</v>
       </c>
       <c r="X37" t="n">
-        <v>142.9918799961324</v>
+        <v>142.9918799961323</v>
       </c>
       <c r="Y37" t="n">
-        <v>135.86687795919</v>
+        <v>135.8668779591899</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>300.0160662705758</v>
+        <v>300.0160662705757</v>
       </c>
       <c r="C38" t="n">
-        <v>282.5551163781028</v>
+        <v>282.5551163781027</v>
       </c>
       <c r="D38" t="n">
-        <v>271.9652662277782</v>
+        <v>271.9652662277781</v>
       </c>
       <c r="E38" t="n">
-        <v>299.212594679357</v>
+        <v>299.2125946793569</v>
       </c>
       <c r="F38" t="n">
         <v>324.1582703488066</v>
       </c>
       <c r="G38" t="n">
-        <v>330.2331195868998</v>
+        <v>330.2331195868997</v>
       </c>
       <c r="H38" t="n">
         <v>232.6712193579089</v>
       </c>
       <c r="I38" t="n">
-        <v>37.08870483417212</v>
+        <v>37.08870483417208</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,19 +3548,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>72.70968241949683</v>
+        <v>72.70968241949679</v>
       </c>
       <c r="T38" t="n">
         <v>130.0828834728173</v>
       </c>
       <c r="U38" t="n">
-        <v>168.4397301121053</v>
+        <v>168.4397301121052</v>
       </c>
       <c r="V38" t="n">
-        <v>245.0344830772301</v>
+        <v>245.03448307723</v>
       </c>
       <c r="W38" t="n">
         <v>266.5231933245082</v>
@@ -3569,7 +3569,7 @@
         <v>287.0133252855642</v>
       </c>
       <c r="Y38" t="n">
-        <v>303.5201632631488</v>
+        <v>303.5201632631487</v>
       </c>
     </row>
     <row r="39">
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.1142047890325</v>
+        <v>97.11420478903246</v>
       </c>
       <c r="C40" t="n">
-        <v>84.52904570572304</v>
+        <v>84.52904570572299</v>
       </c>
       <c r="D40" t="n">
-        <v>65.89769762530756</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>63.71618725366437</v>
+        <v>63.71618725366433</v>
       </c>
       <c r="F40" t="n">
-        <v>62.70327263002645</v>
+        <v>62.7032726300264</v>
       </c>
       <c r="G40" t="n">
-        <v>84.21824836927559</v>
+        <v>84.21824836927554</v>
       </c>
       <c r="H40" t="n">
-        <v>70.12988281307798</v>
+        <v>70.12988281307794</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>47.1409761734208</v>
+        <v>47.14097617342075</v>
       </c>
       <c r="S40" t="n">
-        <v>122.9138237525617</v>
+        <v>122.9138237525616</v>
       </c>
       <c r="T40" t="n">
         <v>140.7202764876418</v>
       </c>
       <c r="U40" t="n">
-        <v>115.1829806977641</v>
+        <v>203.5437109310618</v>
       </c>
       <c r="V40" t="n">
-        <v>169.4198679309232</v>
+        <v>169.4198679309231</v>
       </c>
       <c r="W40" t="n">
-        <v>203.8052229436862</v>
+        <v>203.8052229436861</v>
       </c>
       <c r="X40" t="n">
-        <v>142.9918799961324</v>
+        <v>120.5288473881434</v>
       </c>
       <c r="Y40" t="n">
-        <v>135.86687795919</v>
+        <v>135.8668779591899</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.0160662705757</v>
+        <v>300.0160662705758</v>
       </c>
       <c r="C41" t="n">
-        <v>282.5551163781026</v>
+        <v>282.5551163781028</v>
       </c>
       <c r="D41" t="n">
-        <v>271.965266227778</v>
+        <v>271.9652662277782</v>
       </c>
       <c r="E41" t="n">
-        <v>299.2125946793569</v>
+        <v>299.212594679357</v>
       </c>
       <c r="F41" t="n">
-        <v>324.1582703488065</v>
+        <v>324.1582703488066</v>
       </c>
       <c r="G41" t="n">
-        <v>330.2331195868996</v>
+        <v>330.2331195868998</v>
       </c>
       <c r="H41" t="n">
-        <v>232.6712193579088</v>
+        <v>232.6712193579089</v>
       </c>
       <c r="I41" t="n">
-        <v>37.08870483417202</v>
+        <v>37.08870483417213</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>72.70968241949674</v>
+        <v>72.70968241949684</v>
       </c>
       <c r="T41" t="n">
-        <v>130.0828834728172</v>
+        <v>130.0828834728173</v>
       </c>
       <c r="U41" t="n">
-        <v>168.4397301121052</v>
+        <v>168.4397301121053</v>
       </c>
       <c r="V41" t="n">
-        <v>245.03448307723</v>
+        <v>245.0344830772301</v>
       </c>
       <c r="W41" t="n">
-        <v>266.5231933245081</v>
+        <v>266.5231933245082</v>
       </c>
       <c r="X41" t="n">
-        <v>287.0133252855641</v>
+        <v>287.0133252855642</v>
       </c>
       <c r="Y41" t="n">
-        <v>303.5201632631487</v>
+        <v>303.5201632631488</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.1142047890324</v>
+        <v>97.11420478903251</v>
       </c>
       <c r="C43" t="n">
-        <v>84.52904570572294</v>
+        <v>84.52904570572305</v>
       </c>
       <c r="D43" t="n">
-        <v>65.89769762530746</v>
+        <v>65.89769762530757</v>
       </c>
       <c r="E43" t="n">
-        <v>63.71618725366427</v>
+        <v>63.71618725366439</v>
       </c>
       <c r="F43" t="n">
-        <v>62.70327263002635</v>
+        <v>62.70327263002646</v>
       </c>
       <c r="G43" t="n">
-        <v>84.21824836927549</v>
+        <v>84.2182483692756</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>70.129882813078</v>
       </c>
       <c r="I43" t="n">
-        <v>41.00730760263652</v>
+        <v>41.00730760263663</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>47.1409761734207</v>
+        <v>47.14097617342081</v>
       </c>
       <c r="S43" t="n">
-        <v>122.9138237525615</v>
+        <v>122.9138237525617</v>
       </c>
       <c r="T43" t="n">
-        <v>140.7202764876417</v>
+        <v>140.7202764876419</v>
       </c>
       <c r="U43" t="n">
-        <v>144.3055559082082</v>
+        <v>203.5437109310618</v>
       </c>
       <c r="V43" t="n">
-        <v>169.4198679309231</v>
+        <v>169.4198679309232</v>
       </c>
       <c r="W43" t="n">
-        <v>203.8052229436861</v>
+        <v>203.8052229436862</v>
       </c>
       <c r="X43" t="n">
-        <v>142.9918799961322</v>
+        <v>13.62384216019843</v>
       </c>
       <c r="Y43" t="n">
-        <v>135.8668779591899</v>
+        <v>135.86687795919</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.0160662705757</v>
+        <v>300.0160662705758</v>
       </c>
       <c r="C44" t="n">
-        <v>282.5551163781027</v>
+        <v>282.5551163781028</v>
       </c>
       <c r="D44" t="n">
-        <v>271.9652662277781</v>
+        <v>271.9652662277782</v>
       </c>
       <c r="E44" t="n">
-        <v>299.2125946793569</v>
+        <v>299.212594679357</v>
       </c>
       <c r="F44" t="n">
         <v>324.1582703488066</v>
       </c>
       <c r="G44" t="n">
-        <v>330.2331195868997</v>
+        <v>330.2331195868998</v>
       </c>
       <c r="H44" t="n">
         <v>232.6712193579089</v>
       </c>
       <c r="I44" t="n">
-        <v>37.08870483417208</v>
+        <v>37.08870483417213</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>72.70968241949679</v>
+        <v>72.70968241949686</v>
       </c>
       <c r="T44" t="n">
         <v>130.0828834728173</v>
       </c>
       <c r="U44" t="n">
-        <v>168.4397301121052</v>
+        <v>168.4397301121053</v>
       </c>
       <c r="V44" t="n">
-        <v>245.03448307723</v>
+        <v>245.0344830772301</v>
       </c>
       <c r="W44" t="n">
         <v>266.5231933245082</v>
@@ -4043,7 +4043,7 @@
         <v>287.0133252855642</v>
       </c>
       <c r="Y44" t="n">
-        <v>303.5201632631487</v>
+        <v>303.5201632631488</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.11420478903246</v>
+        <v>97.11420478903251</v>
       </c>
       <c r="C46" t="n">
-        <v>84.52904570572299</v>
+        <v>84.52904570572305</v>
       </c>
       <c r="D46" t="n">
-        <v>65.89769762530752</v>
+        <v>65.89769762530757</v>
       </c>
       <c r="E46" t="n">
-        <v>63.71618725366433</v>
+        <v>63.71618725366439</v>
       </c>
       <c r="F46" t="n">
-        <v>62.7032726300264</v>
+        <v>62.70327263002646</v>
       </c>
       <c r="G46" t="n">
-        <v>84.21824836927554</v>
+        <v>84.2182483692756</v>
       </c>
       <c r="H46" t="n">
-        <v>70.12988281307794</v>
+        <v>70.12988281307798</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>41.00730760263662</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>47.14097617342075</v>
+        <v>47.14097617342081</v>
       </c>
       <c r="S46" t="n">
-        <v>122.9138237525616</v>
+        <v>122.9138237525617</v>
       </c>
       <c r="T46" t="n">
-        <v>140.7202764876418</v>
+        <v>11.35223865170747</v>
       </c>
       <c r="U46" t="n">
         <v>203.5437109310618</v>
       </c>
       <c r="V46" t="n">
-        <v>169.4198679309231</v>
+        <v>169.4198679309232</v>
       </c>
       <c r="W46" t="n">
-        <v>115.4444927103894</v>
+        <v>203.8052229436862</v>
       </c>
       <c r="X46" t="n">
-        <v>142.9918799961323</v>
+        <v>142.9918799961324</v>
       </c>
       <c r="Y46" t="n">
-        <v>135.8668779591899</v>
+        <v>135.86687795919</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>591.4512093066566</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="C2" t="n">
-        <v>591.4512093066566</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="D2" t="n">
-        <v>591.4512093066566</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="E2" t="n">
-        <v>591.4512093066566</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="F2" t="n">
-        <v>348.0024326625565</v>
+        <v>326.8389723397308</v>
       </c>
       <c r="G2" t="n">
-        <v>104.5536560184564</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4355,25 +4355,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>591.4512093066566</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U2" t="n">
-        <v>591.4512093066566</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V2" t="n">
-        <v>591.4512093066566</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W2" t="n">
-        <v>591.4512093066566</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X2" t="n">
-        <v>591.4512093066566</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y2" t="n">
-        <v>591.4512093066566</v>
+        <v>577.2332497330343</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>500.260318022696</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="C3" t="n">
-        <v>325.807288741569</v>
+        <v>678.4104631380844</v>
       </c>
       <c r="D3" t="n">
-        <v>325.807288741569</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="E3" t="n">
-        <v>166.5698337361135</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4410,22 +4410,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4434,25 +4434,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>903.6277632745066</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>903.6277632745066</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U3" t="n">
-        <v>903.6277632745066</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V3" t="n">
-        <v>668.4756550427639</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W3" t="n">
-        <v>668.4756550427639</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X3" t="n">
-        <v>668.4756550427639</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y3" t="n">
-        <v>668.4756550427639</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>494.3473184075753</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C5" t="n">
-        <v>494.3473184075753</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D5" t="n">
-        <v>494.3473184075753</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E5" t="n">
-        <v>494.3473184075753</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F5" t="n">
-        <v>487.4018176583718</v>
+        <v>341.056931913353</v>
       </c>
       <c r="G5" t="n">
         <v>243.9530410142718</v>
@@ -4592,25 +4592,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>737.7960950516754</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V5" t="n">
-        <v>737.7960950516754</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W5" t="n">
-        <v>737.7960950516754</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X5" t="n">
-        <v>737.7960950516754</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y5" t="n">
-        <v>737.7960950516754</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>852.8634924192114</v>
+        <v>372.6384501595139</v>
       </c>
       <c r="C6" t="n">
-        <v>678.4104631380844</v>
+        <v>372.6384501595139</v>
       </c>
       <c r="D6" t="n">
-        <v>529.4760534768332</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E6" t="n">
-        <v>370.2385984713777</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F6" t="n">
         <v>223.7040404982626</v>
@@ -4650,46 +4650,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>65.60123993063803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>580.3987489244678</v>
       </c>
       <c r="Y6" t="n">
-        <v>862.8876260635219</v>
+        <v>372.6384501595139</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
         <v>41.77557929797318</v>
@@ -4747,28 +4747,28 @@
         <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>569.2254314512334</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C8" t="n">
-        <v>540.6514970160482</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D8" t="n">
-        <v>297.2027203719481</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>297.2027203719481</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>290.2572196227447</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
         <v>31.35113235729608</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>812.6742080953335</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>812.6742080953335</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>812.6742080953335</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="W8" t="n">
-        <v>812.6742080953335</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="X8" t="n">
-        <v>812.6742080953335</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="Y8" t="n">
-        <v>812.6742080953335</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4908,25 +4908,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>660.701031422288</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>660.701031422288</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V9" t="n">
-        <v>425.5489231905453</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W9" t="n">
-        <v>182.1001465464452</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X9" t="n">
-        <v>178.5185981156682</v>
+        <v>279.432186667424</v>
       </c>
       <c r="Y9" t="n">
-        <v>178.5185981156682</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1956.949760368827</v>
+        <v>1402.27293509133</v>
       </c>
       <c r="C11" t="n">
-        <v>1613.193577012785</v>
+        <v>1214.882438907343</v>
       </c>
       <c r="D11" t="n">
-        <v>1280.134211990404</v>
+        <v>1214.882438907343</v>
       </c>
       <c r="E11" t="n">
-        <v>919.55229297653</v>
+        <v>854.3005198934691</v>
       </c>
       <c r="F11" t="n">
-        <v>533.7727217712923</v>
+        <v>854.3005198934691</v>
       </c>
       <c r="G11" t="n">
-        <v>141.8569392144457</v>
+        <v>462.3847373366222</v>
       </c>
       <c r="H11" t="n">
-        <v>141.8569392144457</v>
+        <v>169.0163287484529</v>
       </c>
       <c r="I11" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880591</v>
       </c>
       <c r="J11" t="n">
         <v>258.9898176069164</v>
       </c>
       <c r="K11" t="n">
-        <v>658.1763815223502</v>
+        <v>658.1763815223503</v>
       </c>
       <c r="L11" t="n">
         <v>1205.679240092235</v>
       </c>
       <c r="M11" t="n">
-        <v>1831.488208231171</v>
+        <v>1831.488208231172</v>
       </c>
       <c r="N11" t="n">
-        <v>2452.791422191916</v>
+        <v>2452.791422191917</v>
       </c>
       <c r="O11" t="n">
-        <v>2994.282791219484</v>
+        <v>2994.282791219486</v>
       </c>
       <c r="P11" t="n">
-        <v>3418.758763931393</v>
+        <v>3418.758763931395</v>
       </c>
       <c r="Q11" t="n">
-        <v>3660.300781940294</v>
+        <v>3660.300781940295</v>
       </c>
       <c r="R11" t="n">
-        <v>3660.300781940294</v>
+        <v>3660.300781940295</v>
       </c>
       <c r="S11" t="n">
-        <v>3528.509683390925</v>
+        <v>3528.509683390926</v>
       </c>
       <c r="T11" t="n">
-        <v>3528.509683390925</v>
+        <v>3338.76585650487</v>
       </c>
       <c r="U11" t="n">
-        <v>3300.021566970234</v>
+        <v>3110.277740084179</v>
       </c>
       <c r="V11" t="n">
-        <v>2994.165013211033</v>
+        <v>2804.421186324978</v>
       </c>
       <c r="W11" t="n">
-        <v>2666.602691525289</v>
+        <v>2476.858864639234</v>
       </c>
       <c r="X11" t="n">
-        <v>2318.343266848579</v>
+        <v>2128.599439962524</v>
       </c>
       <c r="Y11" t="n">
-        <v>2318.343266848579</v>
+        <v>1763.666441571082</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>119.7433661394903</v>
       </c>
       <c r="I12" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880591</v>
       </c>
       <c r="J12" t="n">
-        <v>73.20601563880588</v>
+        <v>190.1641956615504</v>
       </c>
       <c r="K12" t="n">
-        <v>182.1357483745622</v>
+        <v>516.6851972600605</v>
       </c>
       <c r="L12" t="n">
-        <v>682.5879265049371</v>
+        <v>1017.137375390435</v>
       </c>
       <c r="M12" t="n">
-        <v>1318.571235219109</v>
+        <v>1192.072670992108</v>
       </c>
       <c r="N12" t="n">
-        <v>1987.094143075005</v>
+        <v>1463.839487262976</v>
       </c>
       <c r="O12" t="n">
-        <v>2532.246318960767</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P12" t="n">
-        <v>2637.497792942953</v>
+        <v>2429.521278084463</v>
       </c>
       <c r="Q12" t="n">
         <v>2657.936419551312</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>194.8896295523464</v>
+        <v>438.074039916659</v>
       </c>
       <c r="C13" t="n">
-        <v>194.8896295523464</v>
+        <v>438.074039916659</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8896295523464</v>
+        <v>438.074039916659</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8896295523464</v>
+        <v>438.074039916659</v>
       </c>
       <c r="F13" t="n">
-        <v>73.20601563880588</v>
+        <v>316.3904260031185</v>
       </c>
       <c r="G13" t="n">
-        <v>73.20601563880588</v>
+        <v>172.9745133630637</v>
       </c>
       <c r="H13" t="n">
-        <v>73.20601563880588</v>
+        <v>172.9745133630637</v>
       </c>
       <c r="I13" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880591</v>
       </c>
       <c r="J13" t="n">
-        <v>79.32466191965284</v>
+        <v>79.32466191965297</v>
       </c>
       <c r="K13" t="n">
-        <v>203.3235852420082</v>
+        <v>203.3235852420083</v>
       </c>
       <c r="L13" t="n">
-        <v>410.6171321895907</v>
+        <v>410.6171321895909</v>
       </c>
       <c r="M13" t="n">
-        <v>638.2252920475057</v>
+        <v>638.2252920475058</v>
       </c>
       <c r="N13" t="n">
-        <v>866.4434782183677</v>
+        <v>866.4434782183679</v>
       </c>
       <c r="O13" t="n">
-        <v>1063.109528897733</v>
+        <v>1063.109528897734</v>
       </c>
       <c r="P13" t="n">
         <v>1211.436193392006</v>
       </c>
       <c r="Q13" t="n">
-        <v>1238.29526209475</v>
+        <v>1238.295262094751</v>
       </c>
       <c r="R13" t="n">
-        <v>1238.29526209475</v>
+        <v>1132.331139551519</v>
       </c>
       <c r="S13" t="n">
-        <v>1238.29526209475</v>
+        <v>1132.331139551519</v>
       </c>
       <c r="T13" t="n">
-        <v>1238.29526209475</v>
+        <v>1132.331139551519</v>
       </c>
       <c r="U13" t="n">
-        <v>974.3485791902649</v>
+        <v>1088.205162236637</v>
       </c>
       <c r="V13" t="n">
-        <v>744.8704245687479</v>
+        <v>858.7270076151195</v>
       </c>
       <c r="W13" t="n">
-        <v>480.6595881161572</v>
+        <v>594.5161711625287</v>
       </c>
       <c r="X13" t="n">
-        <v>480.6595881161572</v>
+        <v>594.5161711625287</v>
       </c>
       <c r="Y13" t="n">
-        <v>285.073342556997</v>
+        <v>594.5161711625287</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1885.561775934156</v>
+        <v>1723.807860526755</v>
       </c>
       <c r="C14" t="n">
-        <v>1541.805592578115</v>
+        <v>1452.131490820077</v>
       </c>
       <c r="D14" t="n">
-        <v>1208.746227555734</v>
+        <v>1119.072125797696</v>
       </c>
       <c r="E14" t="n">
-        <v>848.1643085418597</v>
+        <v>758.490206783822</v>
       </c>
       <c r="F14" t="n">
-        <v>462.3847373366222</v>
+        <v>758.490206783822</v>
       </c>
       <c r="G14" t="n">
-        <v>462.3847373366222</v>
+        <v>366.5744242269751</v>
       </c>
       <c r="H14" t="n">
-        <v>169.016328748453</v>
+        <v>73.20601563880589</v>
       </c>
       <c r="I14" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880589</v>
       </c>
       <c r="J14" t="n">
-        <v>258.9898176069164</v>
+        <v>258.9898176069169</v>
       </c>
       <c r="K14" t="n">
-        <v>658.1763815223503</v>
+        <v>658.1763815223508</v>
       </c>
       <c r="L14" t="n">
         <v>1205.679240092235</v>
@@ -5288,40 +5288,40 @@
         <v>1831.488208231172</v>
       </c>
       <c r="N14" t="n">
-        <v>2452.791422191916</v>
+        <v>2452.791422191917</v>
       </c>
       <c r="O14" t="n">
-        <v>2994.282791219484</v>
+        <v>2994.282791219485</v>
       </c>
       <c r="P14" t="n">
-        <v>3418.758763931393</v>
+        <v>3418.758763931394</v>
       </c>
       <c r="Q14" t="n">
-        <v>3660.300781940294</v>
+        <v>3660.300781940295</v>
       </c>
       <c r="R14" t="n">
-        <v>3660.300781940294</v>
+        <v>3660.300781940295</v>
       </c>
       <c r="S14" t="n">
-        <v>3528.509683390925</v>
+        <v>3660.300781940295</v>
       </c>
       <c r="T14" t="n">
-        <v>3457.121698956254</v>
+        <v>3660.300781940295</v>
       </c>
       <c r="U14" t="n">
-        <v>3228.633582535563</v>
+        <v>3431.812665519604</v>
       </c>
       <c r="V14" t="n">
-        <v>2922.777028776362</v>
+        <v>3125.956111760403</v>
       </c>
       <c r="W14" t="n">
-        <v>2595.214707090618</v>
+        <v>2798.393790074659</v>
       </c>
       <c r="X14" t="n">
-        <v>2246.955282413908</v>
+        <v>2450.134365397949</v>
       </c>
       <c r="Y14" t="n">
-        <v>2246.955282413908</v>
+        <v>2085.201367006507</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>119.7433661394903</v>
       </c>
       <c r="I15" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880589</v>
       </c>
       <c r="J15" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880589</v>
       </c>
       <c r="K15" t="n">
-        <v>137.9064325948631</v>
+        <v>341.4065580211424</v>
       </c>
       <c r="L15" t="n">
-        <v>638.3586107252379</v>
+        <v>841.8587361515172</v>
       </c>
       <c r="M15" t="n">
-        <v>813.2939063269102</v>
+        <v>1477.84204486569</v>
       </c>
       <c r="N15" t="n">
-        <v>1481.816814182806</v>
+        <v>1671.816002121468</v>
       </c>
       <c r="O15" t="n">
-        <v>2026.968990068568</v>
+        <v>2216.96817800723</v>
       </c>
       <c r="P15" t="n">
-        <v>2447.498605004292</v>
+        <v>2637.497792942953</v>
       </c>
       <c r="Q15" t="n">
         <v>2657.936419551312</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>205.1731190384499</v>
+        <v>319.7999353803123</v>
       </c>
       <c r="C16" t="n">
-        <v>205.1731190384499</v>
+        <v>319.7999353803123</v>
       </c>
       <c r="D16" t="n">
-        <v>80.26281321048407</v>
+        <v>194.8896295523464</v>
       </c>
       <c r="E16" t="n">
-        <v>73.20601563880588</v>
+        <v>194.8896295523464</v>
       </c>
       <c r="F16" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880589</v>
       </c>
       <c r="G16" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880589</v>
       </c>
       <c r="H16" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880589</v>
       </c>
       <c r="I16" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880589</v>
       </c>
       <c r="J16" t="n">
-        <v>79.32466191965298</v>
+        <v>79.32466191965288</v>
       </c>
       <c r="K16" t="n">
-        <v>203.3235852420085</v>
+        <v>203.3235852420082</v>
       </c>
       <c r="L16" t="n">
-        <v>410.6171321895911</v>
+        <v>410.6171321895907</v>
       </c>
       <c r="M16" t="n">
-        <v>638.2252920475061</v>
+        <v>638.2252920475056</v>
       </c>
       <c r="N16" t="n">
-        <v>866.4434782183681</v>
+        <v>866.4434782183677</v>
       </c>
       <c r="O16" t="n">
-        <v>1063.109528897734</v>
+        <v>1063.109528897733</v>
       </c>
       <c r="P16" t="n">
-        <v>1211.436193392007</v>
+        <v>1211.436193392006</v>
       </c>
       <c r="Q16" t="n">
-        <v>1238.295262094751</v>
+        <v>1238.29526209475</v>
       </c>
       <c r="R16" t="n">
-        <v>1238.295262094751</v>
+        <v>1238.29526209475</v>
       </c>
       <c r="S16" t="n">
-        <v>1055.792909673599</v>
+        <v>1055.792909673598</v>
       </c>
       <c r="T16" t="n">
-        <v>855.3042413584271</v>
+        <v>855.3042413584262</v>
       </c>
       <c r="U16" t="n">
-        <v>855.3042413584271</v>
+        <v>855.3042413584262</v>
       </c>
       <c r="V16" t="n">
-        <v>625.8260867369103</v>
+        <v>855.3042413584262</v>
       </c>
       <c r="W16" t="n">
-        <v>361.6152502843196</v>
+        <v>679.0252839398295</v>
       </c>
       <c r="X16" t="n">
-        <v>361.6152502843196</v>
+        <v>476.2420666261821</v>
       </c>
       <c r="Y16" t="n">
-        <v>361.6152502843196</v>
+        <v>476.2420666261821</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1869.048734237822</v>
+        <v>1869.048734237821</v>
       </c>
       <c r="C17" t="n">
-        <v>1583.639525775092</v>
+        <v>1583.639525775091</v>
       </c>
       <c r="D17" t="n">
-        <v>1308.927135646023</v>
+        <v>1308.927135646022</v>
       </c>
       <c r="E17" t="n">
-        <v>1006.692191525461</v>
+        <v>1006.692191525459</v>
       </c>
       <c r="F17" t="n">
-        <v>679.2595952135341</v>
+        <v>679.2595952135334</v>
       </c>
       <c r="G17" t="n">
-        <v>345.6907875499988</v>
+        <v>345.6907875499983</v>
       </c>
       <c r="H17" t="n">
         <v>110.6693538551413</v>
       </c>
       <c r="I17" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880584</v>
       </c>
       <c r="J17" t="n">
-        <v>258.9898176069164</v>
+        <v>258.9898176069141</v>
       </c>
       <c r="K17" t="n">
-        <v>658.1763815223499</v>
+        <v>658.176381522348</v>
       </c>
       <c r="L17" t="n">
-        <v>1205.679240092235</v>
+        <v>1205.679240092233</v>
       </c>
       <c r="M17" t="n">
-        <v>1831.488208231171</v>
+        <v>1831.48820823117</v>
       </c>
       <c r="N17" t="n">
-        <v>2452.791422191916</v>
+        <v>2452.791422191915</v>
       </c>
       <c r="O17" t="n">
-        <v>2994.282791219484</v>
+        <v>2994.282791219483</v>
       </c>
       <c r="P17" t="n">
-        <v>3418.758763931393</v>
+        <v>3418.758763931392</v>
       </c>
       <c r="Q17" t="n">
-        <v>3660.300781940294</v>
+        <v>3660.300781940292</v>
       </c>
       <c r="R17" t="n">
-        <v>3660.300781940294</v>
+        <v>3660.300781940292</v>
       </c>
       <c r="S17" t="n">
-        <v>3586.856658284237</v>
+        <v>3586.856658284235</v>
       </c>
       <c r="T17" t="n">
-        <v>3455.459806291492</v>
+        <v>3455.45980629149</v>
       </c>
       <c r="U17" t="n">
-        <v>3285.318664764113</v>
+        <v>3285.318664764111</v>
       </c>
       <c r="V17" t="n">
-        <v>3037.809085898224</v>
+        <v>3037.809085898222</v>
       </c>
       <c r="W17" t="n">
-        <v>2768.593739105791</v>
+        <v>2768.59373910579</v>
       </c>
       <c r="X17" t="n">
-        <v>2478.681289322393</v>
+        <v>2478.681289322391</v>
       </c>
       <c r="Y17" t="n">
-        <v>2172.095265824263</v>
+        <v>2172.095265824261</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>119.7433661394903</v>
       </c>
       <c r="I18" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880584</v>
       </c>
       <c r="J18" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880584</v>
       </c>
       <c r="K18" t="n">
-        <v>399.7270172373159</v>
+        <v>341.4065580211424</v>
       </c>
       <c r="L18" t="n">
-        <v>900.1791953676907</v>
+        <v>841.8587361515172</v>
       </c>
       <c r="M18" t="n">
-        <v>1536.162504081863</v>
+        <v>1477.84204486569</v>
       </c>
       <c r="N18" t="n">
-        <v>1730.136461337641</v>
+        <v>1671.816002121468</v>
       </c>
       <c r="O18" t="n">
-        <v>2275.288637223403</v>
+        <v>2216.96817800723</v>
       </c>
       <c r="P18" t="n">
-        <v>2429.521278084463</v>
+        <v>2637.497792942953</v>
       </c>
       <c r="Q18" t="n">
         <v>2657.936419551312</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>550.1773711940702</v>
+        <v>550.1773711940704</v>
       </c>
       <c r="C19" t="n">
-        <v>464.7944967438452</v>
+        <v>464.794496743845</v>
       </c>
       <c r="D19" t="n">
-        <v>398.231165809191</v>
+        <v>398.2311658091908</v>
       </c>
       <c r="E19" t="n">
-        <v>333.8713807044794</v>
+        <v>333.8713807044793</v>
       </c>
       <c r="F19" t="n">
-        <v>270.5347416842506</v>
+        <v>270.5347416842505</v>
       </c>
       <c r="G19" t="n">
-        <v>185.4658039375075</v>
+        <v>185.4658039375074</v>
       </c>
       <c r="H19" t="n">
         <v>114.6275384697519</v>
       </c>
       <c r="I19" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880584</v>
       </c>
       <c r="J19" t="n">
-        <v>136.5105320125877</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K19" t="n">
-        <v>317.6953254278779</v>
+        <v>317.6953254278781</v>
       </c>
       <c r="L19" t="n">
-        <v>582.1747424683952</v>
+        <v>582.1747424683954</v>
       </c>
       <c r="M19" t="n">
         <v>866.9687724192449</v>
@@ -5689,34 +5689,34 @@
         <v>1406.224749455342</v>
       </c>
       <c r="P19" t="n">
-        <v>1611.737284042549</v>
+        <v>1611.73728404255</v>
       </c>
       <c r="Q19" t="n">
-        <v>1695.782222838228</v>
+        <v>1695.782222838229</v>
       </c>
       <c r="R19" t="n">
-        <v>1648.165075188308</v>
+        <v>1648.165075188309</v>
       </c>
       <c r="S19" t="n">
-        <v>1556.589327000773</v>
+        <v>1524.009697660469</v>
       </c>
       <c r="T19" t="n">
-        <v>1414.447633578912</v>
+        <v>1381.868004238608</v>
       </c>
       <c r="U19" t="n">
-        <v>1208.847925567739</v>
+        <v>1176.268296227435</v>
       </c>
       <c r="V19" t="n">
-        <v>1037.716745839534</v>
+        <v>1005.137116499229</v>
       </c>
       <c r="W19" t="n">
-        <v>831.8528842802546</v>
+        <v>799.2732549399502</v>
       </c>
       <c r="X19" t="n">
-        <v>687.4166418599187</v>
+        <v>785.5117982124769</v>
       </c>
       <c r="Y19" t="n">
-        <v>550.1773711940702</v>
+        <v>648.2725275466285</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5729,19 @@
         <v>1869.048734237821</v>
       </c>
       <c r="C20" t="n">
-        <v>1583.63952577509</v>
+        <v>1583.639525775091</v>
       </c>
       <c r="D20" t="n">
-        <v>1308.927135646021</v>
+        <v>1308.927135646022</v>
       </c>
       <c r="E20" t="n">
         <v>1006.692191525459</v>
       </c>
       <c r="F20" t="n">
-        <v>679.259595213533</v>
+        <v>679.2595952135334</v>
       </c>
       <c r="G20" t="n">
-        <v>345.6907875499979</v>
+        <v>345.6907875499983</v>
       </c>
       <c r="H20" t="n">
         <v>110.6693538551412</v>
@@ -5765,28 +5765,28 @@
         <v>2452.791422191915</v>
       </c>
       <c r="O20" t="n">
-        <v>2994.282791219482</v>
+        <v>2994.282791219483</v>
       </c>
       <c r="P20" t="n">
-        <v>3418.758763931391</v>
+        <v>3418.758763931392</v>
       </c>
       <c r="Q20" t="n">
-        <v>3660.300781940291</v>
+        <v>3660.300781940292</v>
       </c>
       <c r="R20" t="n">
-        <v>3660.300781940291</v>
+        <v>3660.300781940292</v>
       </c>
       <c r="S20" t="n">
-        <v>3586.856658284234</v>
+        <v>3586.856658284235</v>
       </c>
       <c r="T20" t="n">
-        <v>3455.459806291489</v>
+        <v>3455.45980629149</v>
       </c>
       <c r="U20" t="n">
         <v>3285.318664764111</v>
       </c>
       <c r="V20" t="n">
-        <v>3037.809085898221</v>
+        <v>3037.809085898222</v>
       </c>
       <c r="W20" t="n">
         <v>2768.593739105789</v>
@@ -5795,7 +5795,7 @@
         <v>2478.681289322391</v>
       </c>
       <c r="Y20" t="n">
-        <v>2172.09526582426</v>
+        <v>2172.095265824261</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5832,19 @@
         <v>73.20601563880584</v>
       </c>
       <c r="K21" t="n">
-        <v>399.7270172373159</v>
+        <v>137.9064325948631</v>
       </c>
       <c r="L21" t="n">
-        <v>900.1791953676907</v>
+        <v>638.3586107252379</v>
       </c>
       <c r="M21" t="n">
-        <v>1536.162504081863</v>
+        <v>1274.34191943941</v>
       </c>
       <c r="N21" t="n">
-        <v>1730.136461337641</v>
+        <v>1942.864827295306</v>
       </c>
       <c r="O21" t="n">
-        <v>2008.991663148739</v>
+        <v>2098.093307097106</v>
       </c>
       <c r="P21" t="n">
         <v>2429.521278084463</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>550.1773711940698</v>
+        <v>419.5025855012085</v>
       </c>
       <c r="C22" t="n">
-        <v>464.7944967438445</v>
+        <v>334.1197110509833</v>
       </c>
       <c r="D22" t="n">
-        <v>398.2311658091905</v>
+        <v>267.5563801163291</v>
       </c>
       <c r="E22" t="n">
-        <v>333.871380704479</v>
+        <v>203.1965950116177</v>
       </c>
       <c r="F22" t="n">
-        <v>270.5347416842503</v>
+        <v>199.6964762164959</v>
       </c>
       <c r="G22" t="n">
-        <v>185.4658039375074</v>
+        <v>114.6275384697519</v>
       </c>
       <c r="H22" t="n">
         <v>114.6275384697519</v>
@@ -5911,10 +5911,10 @@
         <v>136.5105320125877</v>
       </c>
       <c r="K22" t="n">
-        <v>317.6953254278778</v>
+        <v>317.6953254278779</v>
       </c>
       <c r="L22" t="n">
-        <v>582.1747424683952</v>
+        <v>582.1747424683954</v>
       </c>
       <c r="M22" t="n">
         <v>866.9687724192451</v>
@@ -5923,7 +5923,7 @@
         <v>1152.372828683042</v>
       </c>
       <c r="O22" t="n">
-        <v>1406.224749455342</v>
+        <v>1406.224749455343</v>
       </c>
       <c r="P22" t="n">
         <v>1611.73728404255</v>
@@ -5941,19 +5941,19 @@
         <v>1381.868004238609</v>
       </c>
       <c r="U22" t="n">
-        <v>1306.943081920296</v>
+        <v>1176.268296227435</v>
       </c>
       <c r="V22" t="n">
-        <v>1135.811902192091</v>
+        <v>1005.13711649923</v>
       </c>
       <c r="W22" t="n">
-        <v>929.9480406328121</v>
+        <v>799.2732549399508</v>
       </c>
       <c r="X22" t="n">
-        <v>785.5117982124764</v>
+        <v>654.8370125196151</v>
       </c>
       <c r="Y22" t="n">
-        <v>648.2725275466279</v>
+        <v>517.5977418537666</v>
       </c>
     </row>
     <row r="23">
@@ -5969,40 +5969,40 @@
         <v>1583.639525775091</v>
       </c>
       <c r="D23" t="n">
-        <v>1308.927135646022</v>
+        <v>1308.927135646023</v>
       </c>
       <c r="E23" t="n">
         <v>1006.69219152546</v>
       </c>
       <c r="F23" t="n">
-        <v>679.2595952135339</v>
+        <v>679.259595213534</v>
       </c>
       <c r="G23" t="n">
-        <v>345.6907875499987</v>
+        <v>345.6907875499988</v>
       </c>
       <c r="H23" t="n">
         <v>110.6693538551413</v>
       </c>
       <c r="I23" t="n">
-        <v>73.20601563880584</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J23" t="n">
-        <v>258.9898176069163</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K23" t="n">
-        <v>658.1763815223499</v>
+        <v>658.1763815223503</v>
       </c>
       <c r="L23" t="n">
-        <v>1205.679240092234</v>
+        <v>1205.679240092235</v>
       </c>
       <c r="M23" t="n">
-        <v>1831.488208231171</v>
+        <v>1831.488208231172</v>
       </c>
       <c r="N23" t="n">
-        <v>2452.791422191915</v>
+        <v>2452.791422191916</v>
       </c>
       <c r="O23" t="n">
-        <v>2994.282791219483</v>
+        <v>2994.282791219484</v>
       </c>
       <c r="P23" t="n">
         <v>3418.758763931392</v>
@@ -6011,28 +6011,28 @@
         <v>3660.300781940292</v>
       </c>
       <c r="R23" t="n">
-        <v>3660.300781940292</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="S23" t="n">
-        <v>3586.856658284235</v>
+        <v>3586.856658284236</v>
       </c>
       <c r="T23" t="n">
         <v>3455.459806291491</v>
       </c>
       <c r="U23" t="n">
-        <v>3285.318664764111</v>
+        <v>3285.318664764112</v>
       </c>
       <c r="V23" t="n">
-        <v>3037.809085898222</v>
+        <v>3037.809085898223</v>
       </c>
       <c r="W23" t="n">
         <v>2768.59373910579</v>
       </c>
       <c r="X23" t="n">
-        <v>2478.681289322391</v>
+        <v>2478.681289322392</v>
       </c>
       <c r="Y23" t="n">
-        <v>2172.095265824261</v>
+        <v>2172.095265824262</v>
       </c>
     </row>
     <row r="24">
@@ -6054,16 +6054,16 @@
         <v>504.8310905873218</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2965326142067</v>
+        <v>358.2965326142068</v>
       </c>
       <c r="G24" t="n">
-        <v>220.8367644618429</v>
+        <v>220.836764461843</v>
       </c>
       <c r="H24" t="n">
         <v>119.7433661394903</v>
       </c>
       <c r="I24" t="n">
-        <v>73.20601563880584</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J24" t="n">
         <v>190.1641956615502</v>
@@ -6072,16 +6072,16 @@
         <v>516.68519726006</v>
       </c>
       <c r="L24" t="n">
-        <v>1017.137375390435</v>
+        <v>650.00543354001</v>
       </c>
       <c r="M24" t="n">
-        <v>1269.865530007199</v>
+        <v>1285.988742254182</v>
       </c>
       <c r="N24" t="n">
-        <v>1463.839487262977</v>
+        <v>1954.511650110078</v>
       </c>
       <c r="O24" t="n">
-        <v>2008.991663148739</v>
+        <v>2109.740129911877</v>
       </c>
       <c r="P24" t="n">
         <v>2429.521278084463</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>419.5025855012076</v>
+        <v>550.1773711940699</v>
       </c>
       <c r="C25" t="n">
-        <v>334.1197110509823</v>
+        <v>464.7944967438447</v>
       </c>
       <c r="D25" t="n">
-        <v>267.5563801163283</v>
+        <v>398.2311658091906</v>
       </c>
       <c r="E25" t="n">
-        <v>203.1965950116168</v>
+        <v>333.8713807044791</v>
       </c>
       <c r="F25" t="n">
-        <v>203.1965950116168</v>
+        <v>270.5347416842504</v>
       </c>
       <c r="G25" t="n">
-        <v>118.1276572648738</v>
+        <v>185.4658039375074</v>
       </c>
       <c r="H25" t="n">
         <v>114.6275384697519</v>
       </c>
       <c r="I25" t="n">
-        <v>73.20601563880584</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J25" t="n">
         <v>136.5105320125876</v>
@@ -6154,7 +6154,7 @@
         <v>582.1747424683949</v>
       </c>
       <c r="M25" t="n">
-        <v>866.9687724192445</v>
+        <v>866.9687724192447</v>
       </c>
       <c r="N25" t="n">
         <v>1152.372828683041</v>
@@ -6184,13 +6184,13 @@
         <v>1005.137116499229</v>
       </c>
       <c r="W25" t="n">
-        <v>799.2732549399501</v>
+        <v>799.2732549399499</v>
       </c>
       <c r="X25" t="n">
-        <v>654.8370125196143</v>
+        <v>654.8370125196142</v>
       </c>
       <c r="Y25" t="n">
-        <v>517.5977418537657</v>
+        <v>648.272527546628</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1869.048734237821</v>
+        <v>1869.04873423782</v>
       </c>
       <c r="C26" t="n">
         <v>1583.639525775091</v>
       </c>
       <c r="D26" t="n">
-        <v>1308.927135646023</v>
+        <v>1308.927135646022</v>
       </c>
       <c r="E26" t="n">
         <v>1006.69219152546</v>
       </c>
       <c r="F26" t="n">
-        <v>679.2595952135343</v>
+        <v>679.2595952135339</v>
       </c>
       <c r="G26" t="n">
-        <v>345.6907875499992</v>
+        <v>345.6907875499987</v>
       </c>
       <c r="H26" t="n">
         <v>110.6693538551413</v>
@@ -6251,25 +6251,25 @@
         <v>3660.300781940292</v>
       </c>
       <c r="S26" t="n">
-        <v>3586.856658284235</v>
+        <v>3586.856658284234</v>
       </c>
       <c r="T26" t="n">
-        <v>3455.45980629149</v>
+        <v>3455.459806291489</v>
       </c>
       <c r="U26" t="n">
         <v>3285.318664764111</v>
       </c>
       <c r="V26" t="n">
-        <v>3037.809085898222</v>
+        <v>3037.809085898221</v>
       </c>
       <c r="W26" t="n">
-        <v>2768.59373910579</v>
+        <v>2768.593739105789</v>
       </c>
       <c r="X26" t="n">
         <v>2478.681289322391</v>
       </c>
       <c r="Y26" t="n">
-        <v>2172.095265824261</v>
+        <v>2172.09526582426</v>
       </c>
     </row>
     <row r="27">
@@ -6303,22 +6303,22 @@
         <v>73.20601563880585</v>
       </c>
       <c r="J27" t="n">
-        <v>117.4353314185056</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="K27" t="n">
-        <v>182.1357483745627</v>
+        <v>137.9064325948629</v>
       </c>
       <c r="L27" t="n">
-        <v>682.5879265049373</v>
+        <v>638.3586107252374</v>
       </c>
       <c r="M27" t="n">
-        <v>1318.571235219109</v>
+        <v>1003.293094265572</v>
       </c>
       <c r="N27" t="n">
-        <v>1987.094143075005</v>
+        <v>1671.816002121468</v>
       </c>
       <c r="O27" t="n">
-        <v>2532.246318960767</v>
+        <v>2216.96817800723</v>
       </c>
       <c r="P27" t="n">
         <v>2637.497792942953</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>550.1773711940698</v>
+        <v>508.7558483631238</v>
       </c>
       <c r="C28" t="n">
-        <v>464.7944967438446</v>
+        <v>423.3729739128985</v>
       </c>
       <c r="D28" t="n">
-        <v>398.2311658091905</v>
+        <v>356.8096429782445</v>
       </c>
       <c r="E28" t="n">
-        <v>333.8713807044791</v>
+        <v>292.449857873533</v>
       </c>
       <c r="F28" t="n">
-        <v>270.5347416842505</v>
+        <v>229.1132188533043</v>
       </c>
       <c r="G28" t="n">
-        <v>185.4658039375073</v>
+        <v>144.0442811065614</v>
       </c>
       <c r="H28" t="n">
-        <v>114.6275384697519</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="I28" t="n">
         <v>73.20601563880585</v>
       </c>
       <c r="J28" t="n">
-        <v>136.5105320125876</v>
+        <v>136.5105320125877</v>
       </c>
       <c r="K28" t="n">
         <v>317.6953254278778</v>
       </c>
       <c r="L28" t="n">
-        <v>582.174742468395</v>
+        <v>582.1747424683948</v>
       </c>
       <c r="M28" t="n">
         <v>866.9687724192447</v>
@@ -6406,28 +6406,28 @@
         <v>1695.782222838228</v>
       </c>
       <c r="R28" t="n">
-        <v>1648.165075188309</v>
+        <v>1695.782222838228</v>
       </c>
       <c r="S28" t="n">
-        <v>1648.165075188309</v>
+        <v>1571.626845310388</v>
       </c>
       <c r="T28" t="n">
-        <v>1512.54278993147</v>
+        <v>1429.485151888528</v>
       </c>
       <c r="U28" t="n">
-        <v>1306.943081920296</v>
+        <v>1223.885443877354</v>
       </c>
       <c r="V28" t="n">
-        <v>1135.811902192091</v>
+        <v>1052.754264149149</v>
       </c>
       <c r="W28" t="n">
-        <v>929.9480406328121</v>
+        <v>846.8904025898701</v>
       </c>
       <c r="X28" t="n">
-        <v>785.5117982124763</v>
+        <v>702.4541601695344</v>
       </c>
       <c r="Y28" t="n">
-        <v>648.2725275466279</v>
+        <v>606.8510047156818</v>
       </c>
     </row>
     <row r="29">
@@ -6446,34 +6446,34 @@
         <v>1308.927135646022</v>
       </c>
       <c r="E29" t="n">
-        <v>1006.692191525459</v>
+        <v>1006.69219152546</v>
       </c>
       <c r="F29" t="n">
-        <v>679.259595213533</v>
+        <v>679.2595952135339</v>
       </c>
       <c r="G29" t="n">
-        <v>345.6907875499978</v>
+        <v>345.6907875499987</v>
       </c>
       <c r="H29" t="n">
-        <v>110.6693538551414</v>
+        <v>110.6693538551413</v>
       </c>
       <c r="I29" t="n">
-        <v>73.20601563880584</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J29" t="n">
-        <v>258.9898176069162</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K29" t="n">
-        <v>658.1763815223497</v>
+        <v>658.1763815223499</v>
       </c>
       <c r="L29" t="n">
-        <v>1205.679240092234</v>
+        <v>1205.679240092235</v>
       </c>
       <c r="M29" t="n">
         <v>1831.488208231171</v>
       </c>
       <c r="N29" t="n">
-        <v>2452.791422191915</v>
+        <v>2452.791422191916</v>
       </c>
       <c r="O29" t="n">
         <v>2994.282791219483</v>
@@ -6482,7 +6482,7 @@
         <v>3418.758763931392</v>
       </c>
       <c r="Q29" t="n">
-        <v>3660.300781940291</v>
+        <v>3660.300781940292</v>
       </c>
       <c r="R29" t="n">
         <v>3660.300781940292</v>
@@ -6500,7 +6500,7 @@
         <v>3037.809085898222</v>
       </c>
       <c r="W29" t="n">
-        <v>2768.593739105789</v>
+        <v>2768.59373910579</v>
       </c>
       <c r="X29" t="n">
         <v>2478.681289322391</v>
@@ -6528,34 +6528,34 @@
         <v>504.8310905873218</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2965326142067</v>
+        <v>358.2965326142068</v>
       </c>
       <c r="G30" t="n">
-        <v>220.8367644618429</v>
+        <v>220.836764461843</v>
       </c>
       <c r="H30" t="n">
         <v>119.7433661394903</v>
       </c>
       <c r="I30" t="n">
-        <v>73.20601563880584</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J30" t="n">
-        <v>73.20601563880584</v>
+        <v>190.1641956615502</v>
       </c>
       <c r="K30" t="n">
-        <v>341.2911753664966</v>
+        <v>516.68519726006</v>
       </c>
       <c r="L30" t="n">
-        <v>474.6114116464466</v>
+        <v>1017.137375390435</v>
       </c>
       <c r="M30" t="n">
-        <v>1110.594720360619</v>
+        <v>1653.120684104607</v>
       </c>
       <c r="N30" t="n">
-        <v>1779.117628216515</v>
+        <v>1853.763183346939</v>
       </c>
       <c r="O30" t="n">
-        <v>2324.269804102277</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P30" t="n">
         <v>2429.521278084463</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>517.597741853765</v>
+        <v>419.5025855012076</v>
       </c>
       <c r="C31" t="n">
-        <v>432.2148674035398</v>
+        <v>419.5025855012076</v>
       </c>
       <c r="D31" t="n">
-        <v>365.6515364688856</v>
+        <v>352.9392545665536</v>
       </c>
       <c r="E31" t="n">
-        <v>301.2917513641741</v>
+        <v>333.871380704479</v>
       </c>
       <c r="F31" t="n">
-        <v>270.5347416842505</v>
+        <v>270.5347416842503</v>
       </c>
       <c r="G31" t="n">
-        <v>185.4658039375075</v>
+        <v>185.4658039375073</v>
       </c>
       <c r="H31" t="n">
         <v>114.6275384697519</v>
       </c>
       <c r="I31" t="n">
-        <v>73.20601563880584</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J31" t="n">
-        <v>136.5105320125876</v>
+        <v>136.5105320125878</v>
       </c>
       <c r="K31" t="n">
-        <v>317.6953254278776</v>
+        <v>317.6953254278779</v>
       </c>
       <c r="L31" t="n">
-        <v>582.1747424683948</v>
+        <v>582.1747424683952</v>
       </c>
       <c r="M31" t="n">
-        <v>866.9687724192443</v>
+        <v>866.9687724192448</v>
       </c>
       <c r="N31" t="n">
-        <v>1152.372828683041</v>
+        <v>1152.372828683042</v>
       </c>
       <c r="O31" t="n">
-        <v>1406.224749455341</v>
+        <v>1406.224749455342</v>
       </c>
       <c r="P31" t="n">
         <v>1611.737284042549</v>
       </c>
       <c r="Q31" t="n">
-        <v>1695.782222838228</v>
+        <v>1695.782222838229</v>
       </c>
       <c r="R31" t="n">
         <v>1648.165075188308</v>
       </c>
       <c r="S31" t="n">
-        <v>1524.009697660468</v>
+        <v>1524.009697660469</v>
       </c>
       <c r="T31" t="n">
-        <v>1381.868004238607</v>
+        <v>1381.868004238608</v>
       </c>
       <c r="U31" t="n">
-        <v>1176.268296227434</v>
+        <v>1176.268296227435</v>
       </c>
       <c r="V31" t="n">
-        <v>1005.137116499228</v>
+        <v>1005.137116499229</v>
       </c>
       <c r="W31" t="n">
-        <v>799.2732549399493</v>
+        <v>799.2732549399504</v>
       </c>
       <c r="X31" t="n">
-        <v>654.8370125196135</v>
+        <v>654.8370125196147</v>
       </c>
       <c r="Y31" t="n">
-        <v>517.597741853765</v>
+        <v>517.5977418537657</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1869.048734237821</v>
+        <v>1869.04873423782</v>
       </c>
       <c r="C32" t="n">
-        <v>1583.639525775091</v>
+        <v>1583.63952577509</v>
       </c>
       <c r="D32" t="n">
-        <v>1308.927135646023</v>
+        <v>1308.927135646021</v>
       </c>
       <c r="E32" t="n">
-        <v>1006.692191525461</v>
+        <v>1006.692191525459</v>
       </c>
       <c r="F32" t="n">
-        <v>679.2595952135343</v>
+        <v>679.259595213533</v>
       </c>
       <c r="G32" t="n">
-        <v>345.6907875499992</v>
+        <v>345.6907875499987</v>
       </c>
       <c r="H32" t="n">
         <v>110.6693538551413</v>
@@ -6698,19 +6698,19 @@
         <v>73.20601563880585</v>
       </c>
       <c r="J32" t="n">
-        <v>258.9898176069164</v>
+        <v>258.9898176069163</v>
       </c>
       <c r="K32" t="n">
         <v>658.1763815223499</v>
       </c>
       <c r="L32" t="n">
-        <v>1205.679240092235</v>
+        <v>1205.679240092234</v>
       </c>
       <c r="M32" t="n">
         <v>1831.488208231171</v>
       </c>
       <c r="N32" t="n">
-        <v>2452.791422191916</v>
+        <v>2452.791422191915</v>
       </c>
       <c r="O32" t="n">
         <v>2994.282791219483</v>
@@ -6734,16 +6734,16 @@
         <v>3285.318664764111</v>
       </c>
       <c r="V32" t="n">
-        <v>3037.809085898222</v>
+        <v>3037.809085898221</v>
       </c>
       <c r="W32" t="n">
-        <v>2768.59373910579</v>
+        <v>2768.593739105789</v>
       </c>
       <c r="X32" t="n">
         <v>2478.681289322391</v>
       </c>
       <c r="Y32" t="n">
-        <v>2172.095265824261</v>
+        <v>2172.09526582426</v>
       </c>
     </row>
     <row r="33">
@@ -6777,22 +6777,22 @@
         <v>73.20601563880585</v>
       </c>
       <c r="J33" t="n">
-        <v>73.20601563880585</v>
+        <v>190.1641956615502</v>
       </c>
       <c r="K33" t="n">
-        <v>341.2911753664966</v>
+        <v>516.68519726006</v>
       </c>
       <c r="L33" t="n">
-        <v>474.6114116464466</v>
+        <v>1017.137375390435</v>
       </c>
       <c r="M33" t="n">
-        <v>1110.594720360619</v>
+        <v>1653.120684104607</v>
       </c>
       <c r="N33" t="n">
-        <v>1779.117628216515</v>
+        <v>1853.763183346939</v>
       </c>
       <c r="O33" t="n">
-        <v>2324.269804102277</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P33" t="n">
         <v>2429.521278084463</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>543.6579630290481</v>
+        <v>550.1773711940698</v>
       </c>
       <c r="C34" t="n">
-        <v>458.2750885788229</v>
+        <v>464.7944967438446</v>
       </c>
       <c r="D34" t="n">
-        <v>391.711757644169</v>
+        <v>398.2311658091905</v>
       </c>
       <c r="E34" t="n">
-        <v>327.3519725394573</v>
+        <v>333.8713807044791</v>
       </c>
       <c r="F34" t="n">
-        <v>264.0153335192286</v>
+        <v>270.5347416842504</v>
       </c>
       <c r="G34" t="n">
-        <v>178.9463957724856</v>
+        <v>185.4658039375074</v>
       </c>
       <c r="H34" t="n">
-        <v>114.6275384697515</v>
+        <v>114.6275384697519</v>
       </c>
       <c r="I34" t="n">
         <v>73.20601563880585</v>
@@ -6862,10 +6862,10 @@
         <v>317.6953254278778</v>
       </c>
       <c r="L34" t="n">
-        <v>582.1747424683952</v>
+        <v>582.1747424683949</v>
       </c>
       <c r="M34" t="n">
-        <v>866.9687724192448</v>
+        <v>866.9687724192446</v>
       </c>
       <c r="N34" t="n">
         <v>1152.372828683041</v>
@@ -6877,31 +6877,31 @@
         <v>1611.737284042549</v>
       </c>
       <c r="Q34" t="n">
-        <v>1695.782222838229</v>
+        <v>1695.782222838228</v>
       </c>
       <c r="R34" t="n">
-        <v>1648.165075188309</v>
+        <v>1648.165075188308</v>
       </c>
       <c r="S34" t="n">
-        <v>1648.165075188309</v>
+        <v>1524.009697660468</v>
       </c>
       <c r="T34" t="n">
-        <v>1506.023381766448</v>
+        <v>1381.868004238608</v>
       </c>
       <c r="U34" t="n">
-        <v>1300.423673755275</v>
+        <v>1176.268296227435</v>
       </c>
       <c r="V34" t="n">
-        <v>1129.29249402707</v>
+        <v>1005.137116499229</v>
       </c>
       <c r="W34" t="n">
-        <v>923.4286324677905</v>
+        <v>799.2732549399504</v>
       </c>
       <c r="X34" t="n">
-        <v>778.9923900474548</v>
+        <v>785.5117982124762</v>
       </c>
       <c r="Y34" t="n">
-        <v>641.7531193816062</v>
+        <v>648.2725275466279</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1869.048734237822</v>
+        <v>1869.048734237821</v>
       </c>
       <c r="C35" t="n">
-        <v>1583.639525775092</v>
+        <v>1583.639525775091</v>
       </c>
       <c r="D35" t="n">
-        <v>1308.927135646023</v>
+        <v>1308.927135646022</v>
       </c>
       <c r="E35" t="n">
         <v>1006.69219152546</v>
       </c>
       <c r="F35" t="n">
-        <v>679.2595952135343</v>
+        <v>679.2595952135339</v>
       </c>
       <c r="G35" t="n">
-        <v>345.6907875499992</v>
+        <v>345.6907875499987</v>
       </c>
       <c r="H35" t="n">
         <v>110.6693538551413</v>
@@ -6938,19 +6938,19 @@
         <v>258.9898176069164</v>
       </c>
       <c r="K35" t="n">
-        <v>658.1763815223503</v>
+        <v>658.1763815223499</v>
       </c>
       <c r="L35" t="n">
         <v>1205.679240092235</v>
       </c>
       <c r="M35" t="n">
-        <v>1831.488208231172</v>
+        <v>1831.488208231171</v>
       </c>
       <c r="N35" t="n">
         <v>2452.791422191916</v>
       </c>
       <c r="O35" t="n">
-        <v>2994.282791219484</v>
+        <v>2994.282791219483</v>
       </c>
       <c r="P35" t="n">
         <v>3418.758763931392</v>
@@ -6962,25 +6962,25 @@
         <v>3660.300781940292</v>
       </c>
       <c r="S35" t="n">
-        <v>3586.856658284235</v>
+        <v>3586.856658284234</v>
       </c>
       <c r="T35" t="n">
         <v>3455.45980629149</v>
       </c>
       <c r="U35" t="n">
-        <v>3285.318664764112</v>
+        <v>3285.318664764111</v>
       </c>
       <c r="V35" t="n">
-        <v>3037.809085898223</v>
+        <v>3037.809085898222</v>
       </c>
       <c r="W35" t="n">
-        <v>2768.593739105791</v>
+        <v>2768.59373910579</v>
       </c>
       <c r="X35" t="n">
-        <v>2478.681289322392</v>
+        <v>2478.681289322391</v>
       </c>
       <c r="Y35" t="n">
-        <v>2172.095265824262</v>
+        <v>2172.095265824261</v>
       </c>
     </row>
     <row r="36">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>550.17737119407</v>
+        <v>550.1773711940698</v>
       </c>
       <c r="C37" t="n">
-        <v>464.7944967438447</v>
+        <v>464.7944967438445</v>
       </c>
       <c r="D37" t="n">
-        <v>398.2311658091905</v>
+        <v>398.2311658091904</v>
       </c>
       <c r="E37" t="n">
-        <v>333.8713807044791</v>
+        <v>333.871380704479</v>
       </c>
       <c r="F37" t="n">
         <v>270.5347416842503</v>
       </c>
       <c r="G37" t="n">
-        <v>185.4658039375073</v>
+        <v>185.4658039375074</v>
       </c>
       <c r="H37" t="n">
         <v>114.6275384697519</v>
@@ -7093,10 +7093,10 @@
         <v>73.20601563880585</v>
       </c>
       <c r="J37" t="n">
-        <v>136.5105320125879</v>
+        <v>136.5105320125877</v>
       </c>
       <c r="K37" t="n">
-        <v>317.6953254278779</v>
+        <v>317.6953254278778</v>
       </c>
       <c r="L37" t="n">
         <v>582.1747424683952</v>
@@ -7105,40 +7105,40 @@
         <v>866.9687724192448</v>
       </c>
       <c r="N37" t="n">
-        <v>1152.372828683041</v>
+        <v>1152.372828683042</v>
       </c>
       <c r="O37" t="n">
         <v>1406.224749455342</v>
       </c>
       <c r="P37" t="n">
-        <v>1611.73728404255</v>
+        <v>1611.737284042549</v>
       </c>
       <c r="Q37" t="n">
-        <v>1695.782222838229</v>
+        <v>1695.782222838228</v>
       </c>
       <c r="R37" t="n">
-        <v>1648.165075188309</v>
+        <v>1648.165075188308</v>
       </c>
       <c r="S37" t="n">
-        <v>1524.009697660469</v>
+        <v>1524.009697660468</v>
       </c>
       <c r="T37" t="n">
-        <v>1381.868004238608</v>
+        <v>1512.542789931469</v>
       </c>
       <c r="U37" t="n">
-        <v>1176.268296227434</v>
+        <v>1306.943081920295</v>
       </c>
       <c r="V37" t="n">
-        <v>1005.137116499229</v>
+        <v>1135.81190219209</v>
       </c>
       <c r="W37" t="n">
-        <v>929.9480406328124</v>
+        <v>929.9480406328121</v>
       </c>
       <c r="X37" t="n">
-        <v>785.5117982124767</v>
+        <v>785.5117982124764</v>
       </c>
       <c r="Y37" t="n">
-        <v>648.2725275466281</v>
+        <v>648.2725275466279</v>
       </c>
     </row>
     <row r="38">
@@ -7154,40 +7154,40 @@
         <v>1583.639525775091</v>
       </c>
       <c r="D38" t="n">
-        <v>1308.927135646023</v>
+        <v>1308.927135646022</v>
       </c>
       <c r="E38" t="n">
         <v>1006.69219152546</v>
       </c>
       <c r="F38" t="n">
-        <v>679.259595213534</v>
+        <v>679.2595952135348</v>
       </c>
       <c r="G38" t="n">
-        <v>345.6907875499988</v>
+        <v>345.6907875499996</v>
       </c>
       <c r="H38" t="n">
         <v>110.6693538551413</v>
       </c>
       <c r="I38" t="n">
-        <v>73.20601563880584</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J38" t="n">
-        <v>258.9898176069159</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K38" t="n">
-        <v>658.1763815223494</v>
+        <v>658.1763815223503</v>
       </c>
       <c r="L38" t="n">
-        <v>1205.679240092234</v>
+        <v>1205.679240092235</v>
       </c>
       <c r="M38" t="n">
-        <v>1831.488208231171</v>
+        <v>1831.488208231172</v>
       </c>
       <c r="N38" t="n">
-        <v>2452.791422191915</v>
+        <v>2452.791422191916</v>
       </c>
       <c r="O38" t="n">
-        <v>2994.282791219483</v>
+        <v>2994.282791219484</v>
       </c>
       <c r="P38" t="n">
         <v>3418.758763931392</v>
@@ -7196,28 +7196,28 @@
         <v>3660.300781940292</v>
       </c>
       <c r="R38" t="n">
-        <v>3660.300781940293</v>
+        <v>3660.300781940292</v>
       </c>
       <c r="S38" t="n">
-        <v>3586.856658284236</v>
+        <v>3586.856658284235</v>
       </c>
       <c r="T38" t="n">
-        <v>3455.459806291491</v>
+        <v>3455.45980629149</v>
       </c>
       <c r="U38" t="n">
         <v>3285.318664764112</v>
       </c>
       <c r="V38" t="n">
-        <v>3037.809085898223</v>
+        <v>3037.809085898222</v>
       </c>
       <c r="W38" t="n">
         <v>2768.59373910579</v>
       </c>
       <c r="X38" t="n">
-        <v>2478.681289322392</v>
+        <v>2478.681289322391</v>
       </c>
       <c r="Y38" t="n">
-        <v>2172.095265824262</v>
+        <v>2172.095265824261</v>
       </c>
     </row>
     <row r="39">
@@ -7239,16 +7239,16 @@
         <v>504.8310905873218</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2965326142067</v>
+        <v>358.2965326142068</v>
       </c>
       <c r="G39" t="n">
-        <v>220.8367644618429</v>
+        <v>220.836764461843</v>
       </c>
       <c r="H39" t="n">
         <v>119.7433661394903</v>
       </c>
       <c r="I39" t="n">
-        <v>73.20601563880584</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J39" t="n">
         <v>190.1641956615502</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>508.7558483631242</v>
+        <v>442.1925174284697</v>
       </c>
       <c r="C40" t="n">
-        <v>423.3729739128989</v>
+        <v>356.8096429782445</v>
       </c>
       <c r="D40" t="n">
-        <v>356.8096429782448</v>
+        <v>356.8096429782445</v>
       </c>
       <c r="E40" t="n">
-        <v>292.4498578735333</v>
+        <v>292.449857873533</v>
       </c>
       <c r="F40" t="n">
-        <v>229.1132188533046</v>
+        <v>229.1132188533043</v>
       </c>
       <c r="G40" t="n">
         <v>144.0442811065614</v>
       </c>
       <c r="H40" t="n">
-        <v>73.20601563880584</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="I40" t="n">
-        <v>73.20601563880584</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J40" t="n">
         <v>136.5105320125876</v>
@@ -7339,43 +7339,43 @@
         <v>582.1747424683949</v>
       </c>
       <c r="M40" t="n">
-        <v>866.9687724192446</v>
+        <v>866.9687724192447</v>
       </c>
       <c r="N40" t="n">
-        <v>1152.372828683041</v>
+        <v>1152.372828683042</v>
       </c>
       <c r="O40" t="n">
         <v>1406.224749455342</v>
       </c>
       <c r="P40" t="n">
-        <v>1611.737284042549</v>
+        <v>1611.73728404255</v>
       </c>
       <c r="Q40" t="n">
-        <v>1695.782222838228</v>
+        <v>1695.782222838229</v>
       </c>
       <c r="R40" t="n">
-        <v>1648.165075188308</v>
+        <v>1648.165075188309</v>
       </c>
       <c r="S40" t="n">
-        <v>1524.009697660468</v>
+        <v>1524.009697660469</v>
       </c>
       <c r="T40" t="n">
         <v>1381.868004238608</v>
       </c>
       <c r="U40" t="n">
-        <v>1265.521559089351</v>
+        <v>1176.268296227434</v>
       </c>
       <c r="V40" t="n">
-        <v>1094.390379361146</v>
+        <v>1005.137116499229</v>
       </c>
       <c r="W40" t="n">
-        <v>888.5265178018667</v>
+        <v>799.2732549399502</v>
       </c>
       <c r="X40" t="n">
-        <v>744.0902753815309</v>
+        <v>677.5269444468761</v>
       </c>
       <c r="Y40" t="n">
-        <v>606.8510047156824</v>
+        <v>540.2876737810278</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1869.04873423782</v>
+        <v>1869.048734237821</v>
       </c>
       <c r="C41" t="n">
-        <v>1583.63952577509</v>
+        <v>1583.639525775091</v>
       </c>
       <c r="D41" t="n">
-        <v>1308.927135646021</v>
+        <v>1308.927135646022</v>
       </c>
       <c r="E41" t="n">
-        <v>1006.692191525458</v>
+        <v>1006.69219152546</v>
       </c>
       <c r="F41" t="n">
-        <v>679.2595952135324</v>
+        <v>679.2595952135334</v>
       </c>
       <c r="G41" t="n">
-        <v>345.6907875499974</v>
+        <v>345.6907875499988</v>
       </c>
       <c r="H41" t="n">
-        <v>110.6693538551412</v>
+        <v>110.6693538551413</v>
       </c>
       <c r="I41" t="n">
-        <v>73.20601563880581</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J41" t="n">
-        <v>258.9898176069162</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K41" t="n">
-        <v>658.1763815223486</v>
+        <v>658.1763815223499</v>
       </c>
       <c r="L41" t="n">
-        <v>1205.679240092233</v>
+        <v>1205.679240092235</v>
       </c>
       <c r="M41" t="n">
-        <v>1831.48820823117</v>
+        <v>1831.488208231171</v>
       </c>
       <c r="N41" t="n">
-        <v>2452.791422191914</v>
+        <v>2452.791422191916</v>
       </c>
       <c r="O41" t="n">
-        <v>2994.282791219482</v>
+        <v>2994.282791219483</v>
       </c>
       <c r="P41" t="n">
-        <v>3418.75876393139</v>
+        <v>3418.758763931392</v>
       </c>
       <c r="Q41" t="n">
-        <v>3660.30078194029</v>
+        <v>3660.300781940292</v>
       </c>
       <c r="R41" t="n">
-        <v>3660.30078194029</v>
+        <v>3660.300781940292</v>
       </c>
       <c r="S41" t="n">
-        <v>3586.856658284233</v>
+        <v>3586.856658284235</v>
       </c>
       <c r="T41" t="n">
-        <v>3455.459806291488</v>
+        <v>3455.45980629149</v>
       </c>
       <c r="U41" t="n">
-        <v>3285.318664764109</v>
+        <v>3285.318664764111</v>
       </c>
       <c r="V41" t="n">
-        <v>3037.80908589822</v>
+        <v>3037.809085898222</v>
       </c>
       <c r="W41" t="n">
-        <v>2768.593739105788</v>
+        <v>2768.59373910579</v>
       </c>
       <c r="X41" t="n">
-        <v>2478.68128932239</v>
+        <v>2478.681289322391</v>
       </c>
       <c r="Y41" t="n">
-        <v>2172.09526582426</v>
+        <v>2172.095265824261</v>
       </c>
     </row>
     <row r="42">
@@ -7476,37 +7476,37 @@
         <v>504.8310905873218</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2965326142067</v>
+        <v>358.2965326142068</v>
       </c>
       <c r="G42" t="n">
-        <v>220.8367644618429</v>
+        <v>220.836764461843</v>
       </c>
       <c r="H42" t="n">
         <v>119.7433661394903</v>
       </c>
       <c r="I42" t="n">
-        <v>73.20601563880581</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J42" t="n">
-        <v>73.20601563880581</v>
+        <v>190.1641956615502</v>
       </c>
       <c r="K42" t="n">
-        <v>137.9064325948629</v>
+        <v>516.68519726006</v>
       </c>
       <c r="L42" t="n">
-        <v>638.3586107252374</v>
+        <v>1017.137375390435</v>
       </c>
       <c r="M42" t="n">
-        <v>1274.34191943941</v>
+        <v>1269.865530007199</v>
       </c>
       <c r="N42" t="n">
-        <v>1942.864827295306</v>
+        <v>1463.839487262977</v>
       </c>
       <c r="O42" t="n">
-        <v>2488.017003181068</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P42" t="n">
-        <v>2593.268477163253</v>
+        <v>2429.521278084463</v>
       </c>
       <c r="Q42" t="n">
         <v>2657.936419551312</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>479.3391057263138</v>
+        <v>550.17737119407</v>
       </c>
       <c r="C43" t="n">
-        <v>393.9562312760886</v>
+        <v>464.7944967438448</v>
       </c>
       <c r="D43" t="n">
-        <v>327.3929003414347</v>
+        <v>398.2311658091907</v>
       </c>
       <c r="E43" t="n">
-        <v>263.0331152367233</v>
+        <v>333.8713807044792</v>
       </c>
       <c r="F43" t="n">
-        <v>199.6964762164947</v>
+        <v>270.5347416842504</v>
       </c>
       <c r="G43" t="n">
-        <v>114.6275384697518</v>
+        <v>185.4658039375074</v>
       </c>
       <c r="H43" t="n">
-        <v>114.6275384697518</v>
+        <v>114.6275384697519</v>
       </c>
       <c r="I43" t="n">
-        <v>73.20601563880581</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J43" t="n">
-        <v>136.5105320125879</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K43" t="n">
-        <v>317.6953254278781</v>
+        <v>317.6953254278777</v>
       </c>
       <c r="L43" t="n">
-        <v>582.1747424683954</v>
+        <v>582.1747424683949</v>
       </c>
       <c r="M43" t="n">
-        <v>866.9687724192452</v>
+        <v>866.9687724192446</v>
       </c>
       <c r="N43" t="n">
-        <v>1152.372828683042</v>
+        <v>1152.372828683041</v>
       </c>
       <c r="O43" t="n">
         <v>1406.224749455342</v>
       </c>
       <c r="P43" t="n">
-        <v>1611.73728404255</v>
+        <v>1611.737284042549</v>
       </c>
       <c r="Q43" t="n">
-        <v>1695.782222838229</v>
+        <v>1695.782222838228</v>
       </c>
       <c r="R43" t="n">
-        <v>1648.165075188309</v>
+        <v>1648.165075188308</v>
       </c>
       <c r="S43" t="n">
-        <v>1524.009697660469</v>
+        <v>1524.009697660468</v>
       </c>
       <c r="T43" t="n">
-        <v>1381.868004238609</v>
+        <v>1381.868004238608</v>
       </c>
       <c r="U43" t="n">
-        <v>1236.10481645254</v>
+        <v>1176.268296227434</v>
       </c>
       <c r="V43" t="n">
-        <v>1064.973636724335</v>
+        <v>1005.137116499229</v>
       </c>
       <c r="W43" t="n">
-        <v>859.1097751650558</v>
+        <v>799.2732549399498</v>
       </c>
       <c r="X43" t="n">
-        <v>714.6735327447202</v>
+        <v>785.5117982124768</v>
       </c>
       <c r="Y43" t="n">
-        <v>577.4342620788718</v>
+        <v>648.2725275466281</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1869.048734237821</v>
+        <v>1869.048734237822</v>
       </c>
       <c r="C44" t="n">
-        <v>1583.639525775091</v>
+        <v>1583.639525775092</v>
       </c>
       <c r="D44" t="n">
         <v>1308.927135646023</v>
       </c>
       <c r="E44" t="n">
-        <v>1006.69219152546</v>
+        <v>1006.692191525461</v>
       </c>
       <c r="F44" t="n">
         <v>679.2595952135343</v>
@@ -7640,43 +7640,43 @@
         <v>345.6907875499992</v>
       </c>
       <c r="H44" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551414</v>
       </c>
       <c r="I44" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="J44" t="n">
-        <v>258.9898176069164</v>
+        <v>258.9898176069187</v>
       </c>
       <c r="K44" t="n">
-        <v>658.1763815223503</v>
+        <v>658.1763815223522</v>
       </c>
       <c r="L44" t="n">
-        <v>1205.679240092235</v>
+        <v>1205.679240092237</v>
       </c>
       <c r="M44" t="n">
-        <v>1831.488208231172</v>
+        <v>1831.488208231173</v>
       </c>
       <c r="N44" t="n">
-        <v>2452.791422191916</v>
+        <v>2452.791422191918</v>
       </c>
       <c r="O44" t="n">
-        <v>2994.282791219484</v>
+        <v>2994.282791219485</v>
       </c>
       <c r="P44" t="n">
-        <v>3418.758763931392</v>
+        <v>3418.758763931394</v>
       </c>
       <c r="Q44" t="n">
-        <v>3660.300781940292</v>
+        <v>3660.300781940294</v>
       </c>
       <c r="R44" t="n">
-        <v>3660.300781940292</v>
+        <v>3660.300781940294</v>
       </c>
       <c r="S44" t="n">
-        <v>3586.856658284235</v>
+        <v>3586.856658284236</v>
       </c>
       <c r="T44" t="n">
-        <v>3455.45980629149</v>
+        <v>3455.459806291492</v>
       </c>
       <c r="U44" t="n">
         <v>3285.318664764112</v>
@@ -7722,28 +7722,28 @@
         <v>119.7433661394903</v>
       </c>
       <c r="I45" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="J45" t="n">
-        <v>73.20601563880585</v>
+        <v>190.1641956615503</v>
       </c>
       <c r="K45" t="n">
-        <v>137.9064325948629</v>
+        <v>516.6851972600601</v>
       </c>
       <c r="L45" t="n">
-        <v>638.3586107252374</v>
+        <v>1017.137375390435</v>
       </c>
       <c r="M45" t="n">
-        <v>1274.34191943941</v>
+        <v>1269.865530007199</v>
       </c>
       <c r="N45" t="n">
-        <v>1942.864827295306</v>
+        <v>1463.839487262977</v>
       </c>
       <c r="O45" t="n">
-        <v>2488.017003181068</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P45" t="n">
-        <v>2637.497792942953</v>
+        <v>2429.521278084463</v>
       </c>
       <c r="Q45" t="n">
         <v>2657.936419551312</v>
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>508.7558483631238</v>
+        <v>550.1773711940702</v>
       </c>
       <c r="C46" t="n">
-        <v>423.3729739128985</v>
+        <v>464.7944967438449</v>
       </c>
       <c r="D46" t="n">
-        <v>356.8096429782445</v>
+        <v>398.2311658091908</v>
       </c>
       <c r="E46" t="n">
-        <v>292.449857873533</v>
+        <v>333.8713807044792</v>
       </c>
       <c r="F46" t="n">
-        <v>229.1132188533043</v>
+        <v>270.5347416842505</v>
       </c>
       <c r="G46" t="n">
-        <v>144.0442811065614</v>
+        <v>185.4658039375074</v>
       </c>
       <c r="H46" t="n">
-        <v>73.20601563880585</v>
+        <v>114.627538469752</v>
       </c>
       <c r="I46" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="J46" t="n">
         <v>136.5105320125877</v>
       </c>
       <c r="K46" t="n">
-        <v>317.6953254278778</v>
+        <v>317.6953254278777</v>
       </c>
       <c r="L46" t="n">
-        <v>582.1747424683952</v>
+        <v>582.1747424683949</v>
       </c>
       <c r="M46" t="n">
-        <v>866.9687724192447</v>
+        <v>866.9687724192445</v>
       </c>
       <c r="N46" t="n">
         <v>1152.372828683041</v>
       </c>
       <c r="O46" t="n">
-        <v>1406.224749455342</v>
+        <v>1406.224749455341</v>
       </c>
       <c r="P46" t="n">
         <v>1611.737284042549</v>
@@ -7834,22 +7834,22 @@
         <v>1524.009697660468</v>
       </c>
       <c r="T46" t="n">
-        <v>1381.868004238608</v>
+        <v>1512.54278993147</v>
       </c>
       <c r="U46" t="n">
-        <v>1176.268296227434</v>
+        <v>1306.943081920297</v>
       </c>
       <c r="V46" t="n">
-        <v>1005.137116499229</v>
+        <v>1135.811902192092</v>
       </c>
       <c r="W46" t="n">
-        <v>888.5265178018661</v>
+        <v>929.9480406328128</v>
       </c>
       <c r="X46" t="n">
-        <v>744.0902753815304</v>
+        <v>785.5117982124771</v>
       </c>
       <c r="Y46" t="n">
-        <v>606.8510047156818</v>
+        <v>648.2725275466283</v>
       </c>
     </row>
   </sheetData>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8298,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>185.3423563661624</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,13 +8541,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>7.95145955985889</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>44.67607654515064</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>78.57864546978809</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,19 +9003,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>7.951459559858918</v>
+        <v>7.95145955985889</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>205.5556822487669</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>191.9183716552133</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>7.951459559858918</v>
+        <v>7.95145955985889</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>205.5556822487669</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9258,10 +9258,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>49.47592614027607</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720719</v>
+        <v>169.0966151720718</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>7.951459559858918</v>
+        <v>7.95145955985889</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,13 +9489,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>124.8754767770688</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>228.4611080860306</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9720,19 +9720,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>78.57864546979019</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>216.6966405963631</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>52.62753610501026</v>
+        <v>7.951459559858975</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9960,7 +9960,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>191.9183716552142</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9969,7 +9969,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10188,25 +10188,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>7.951459559858975</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>205.4391341127613</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>6.735900996519689</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10425,25 +10425,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>7.951459559858975</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>205.4391341127613</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>6.735900996519689</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711635</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>7.951459559858975</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>78.57864546979019</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>44.67607654515143</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720763</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>7.951459559858975</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>78.57864546979008</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>44.6760765451514</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>154.8020303003349</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>329.7287713721568</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>381.9217754931853</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>290.4347245022876</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>26.8877956386673</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>187.846388617196</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>361.2836684075274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>65.59583405880707</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>142.2925508501017</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>141.9817535136542</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>127.8933879574566</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77081274701521</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>104.9044813177994</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>180.6773288969403</v>
@@ -23470,7 +23470,7 @@
         <v>198.4837816320205</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>217.6224985337066</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>200.755385140511</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>193.6303831035686</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>71.3590155128704</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>381.9217754931853</v>
       </c>
       <c r="G14" t="n">
-        <v>387.9966247312783</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>94.85220997855068</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>130.4731875638754</v>
       </c>
       <c r="T14" t="n">
-        <v>117.1722840268715</v>
+        <v>187.8463886171959</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>361.2836684075273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>142.2925508501016</v>
+        <v>142.2925508501017</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>114.4934628020816</v>
+        <v>121.479692398043</v>
       </c>
       <c r="F16" t="n">
-        <v>120.466777774405</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>141.9817535136541</v>
+        <v>141.9817535136542</v>
       </c>
       <c r="H16" t="n">
-        <v>127.8933879574565</v>
+        <v>127.8933879574566</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77081274701513</v>
+        <v>98.77081274701521</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>104.9044813177993</v>
+        <v>104.9044813177994</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>261.3072160754404</v>
+        <v>261.3072160754405</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>227.1833730753018</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>87.0525602436542</v>
       </c>
       <c r="X16" t="n">
-        <v>200.7553851405109</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>193.6303831035685</v>
+        <v>193.6303831035686</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.11420478903257</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>32.25383304690155</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>129.3680378359339</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>59.23815502285584</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>70.12988281307794</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>129.3680378359327</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24373,13 +24373,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>62.70327263002642</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>66.66476520590723</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>129.3680378359338</v>
       </c>
     </row>
     <row r="26">
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>41.00730760263657</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>47.14097617342075</v>
       </c>
       <c r="S28" t="n">
-        <v>122.9138237525616</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>6.454214083371483</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>41.21975405987611</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.11420478903254</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>84.52904570572299</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>44.83899213021047</v>
       </c>
       <c r="F31" t="n">
-        <v>32.25383304690234</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>6.454214083371118</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>122.9138237525616</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>129.3680378359327</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>129.3680378359321</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>129.3680378359338</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>65.89769762530752</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>41.00730760263662</v>
+        <v>41.00730760263657</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>88.36073023329776</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>22.46303260798891</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>70.12988281307787</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>59.2381550228535</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>129.3680378359339</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>41.00730760263657</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>129.3680378359344</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>88.36073023329679</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>831369.7255832208</v>
+        <v>831369.7255832207</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>831369.7255832211</v>
+        <v>831369.7255832208</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>948693.5320840793</v>
+        <v>948693.5320840792</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>948693.5320840793</v>
+        <v>948693.5320840792</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>948693.5320840793</v>
+        <v>948693.5320840792</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>948693.5320840792</v>
+        <v>948693.5320840793</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>948693.5320840792</v>
+        <v>948693.5320840793</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>948693.5320840792</v>
+        <v>948693.5320840793</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>948693.5320840793</v>
+        <v>948693.5320840792</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>948693.5320840793</v>
+        <v>948693.5320840792</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="E2" t="n">
-        <v>429549.7413906762</v>
+        <v>429549.7413906764</v>
       </c>
       <c r="F2" t="n">
         <v>429549.7413906762</v>
       </c>
       <c r="G2" t="n">
-        <v>490762.1621737328</v>
+        <v>490762.1621737326</v>
       </c>
       <c r="H2" t="n">
-        <v>490762.1621737328</v>
+        <v>490762.1621737326</v>
       </c>
       <c r="I2" t="n">
         <v>490762.1621737327</v>
       </c>
       <c r="J2" t="n">
-        <v>490762.1621737327</v>
+        <v>490762.1621737328</v>
       </c>
       <c r="K2" t="n">
         <v>490762.1621737329</v>
@@ -26347,10 +26347,10 @@
         <v>490762.1621737329</v>
       </c>
       <c r="N2" t="n">
-        <v>490762.1621737327</v>
+        <v>490762.1621737329</v>
       </c>
       <c r="O2" t="n">
-        <v>490762.1621737327</v>
+        <v>490762.1621737329</v>
       </c>
       <c r="P2" t="n">
         <v>490762.1621737328</v>
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>691230.6639893665</v>
+        <v>691230.6639893668</v>
       </c>
       <c r="F3" t="n">
-        <v>7.958078640513122e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>46210.80411550277</v>
+        <v>46210.80411550268</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83023.35879792717</v>
+        <v>83023.35879792715</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>46210.80411550285</v>
+        <v>46210.80411550287</v>
       </c>
       <c r="M3" t="n">
-        <v>167978.6741701941</v>
+        <v>167978.6741701943</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19963.41619882091</v>
+        <v>19963.41619882075</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>34014.3486223673</v>
       </c>
       <c r="F4" t="n">
-        <v>34014.3486223674</v>
+        <v>34014.3486223673</v>
       </c>
       <c r="G4" t="n">
         <v>92387.01173515842</v>
@@ -26436,28 +26436,28 @@
         <v>92387.01173515848</v>
       </c>
       <c r="I4" t="n">
-        <v>92387.01173515854</v>
+        <v>92387.01173515852</v>
       </c>
       <c r="J4" t="n">
         <v>92387.01173515851</v>
       </c>
       <c r="K4" t="n">
-        <v>92387.01173515845</v>
+        <v>92387.01173515851</v>
       </c>
       <c r="L4" t="n">
         <v>92387.01173515851</v>
       </c>
       <c r="M4" t="n">
+        <v>92387.01173515851</v>
+      </c>
+      <c r="N4" t="n">
+        <v>92387.01173515851</v>
+      </c>
+      <c r="O4" t="n">
         <v>92387.01173515845</v>
       </c>
-      <c r="N4" t="n">
-        <v>92387.01173515854</v>
-      </c>
-      <c r="O4" t="n">
-        <v>92387.01173515856</v>
-      </c>
       <c r="P4" t="n">
-        <v>92387.01173515851</v>
+        <v>92387.01173515845</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26476,13 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>70487.90653947927</v>
+        <v>70487.9065394793</v>
       </c>
       <c r="F5" t="n">
-        <v>70487.90653947927</v>
+        <v>70487.90653947929</v>
       </c>
       <c r="G5" t="n">
-        <v>75344.02665346203</v>
+        <v>75344.026653462</v>
       </c>
       <c r="H5" t="n">
         <v>75344.026653462</v>
@@ -26494,22 +26494,22 @@
         <v>75344.02665346202</v>
       </c>
       <c r="K5" t="n">
-        <v>75344.026653462</v>
+        <v>75344.02665346202</v>
       </c>
       <c r="L5" t="n">
         <v>75344.02665346202</v>
       </c>
       <c r="M5" t="n">
+        <v>75344.02665346202</v>
+      </c>
+      <c r="N5" t="n">
+        <v>75344.02665346202</v>
+      </c>
+      <c r="O5" t="n">
         <v>75344.026653462</v>
       </c>
-      <c r="N5" t="n">
-        <v>75344.026653462</v>
-      </c>
-      <c r="O5" t="n">
-        <v>75344.02665346197</v>
-      </c>
       <c r="P5" t="n">
-        <v>75344.02665346202</v>
+        <v>75344.02665346203</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>76081.72291945864</v>
+        <v>76081.7229194587</v>
       </c>
       <c r="C6" t="n">
         <v>156851.1544510066</v>
@@ -26528,40 +26528,40 @@
         <v>156851.1544510064</v>
       </c>
       <c r="E6" t="n">
-        <v>-366183.1777605369</v>
+        <v>-366445.99159607</v>
       </c>
       <c r="F6" t="n">
-        <v>325047.4862288295</v>
+        <v>324784.6723932969</v>
       </c>
       <c r="G6" t="n">
-        <v>276820.3196696096</v>
+        <v>276812.5575873394</v>
       </c>
       <c r="H6" t="n">
-        <v>323031.1237851124</v>
+        <v>323023.361702842</v>
       </c>
       <c r="I6" t="n">
-        <v>323031.1237851124</v>
+        <v>323023.3617028423</v>
       </c>
       <c r="J6" t="n">
-        <v>240007.764987185</v>
+        <v>240000.002904915</v>
       </c>
       <c r="K6" t="n">
-        <v>323031.1237851125</v>
+        <v>323023.3617028422</v>
       </c>
       <c r="L6" t="n">
-        <v>276820.3196696095</v>
+        <v>276812.5575873393</v>
       </c>
       <c r="M6" t="n">
-        <v>155052.4496149184</v>
+        <v>155044.6875326479</v>
       </c>
       <c r="N6" t="n">
-        <v>323031.1237851122</v>
+        <v>323023.3617028422</v>
       </c>
       <c r="O6" t="n">
-        <v>303067.7075862912</v>
+        <v>303059.9455040215</v>
       </c>
       <c r="P6" t="n">
-        <v>323031.1237851123</v>
+        <v>323023.3617028421</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="F2" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="G2" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H2" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="I2" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="J2" t="n">
         <v>82.71777539290484</v>
       </c>
       <c r="K2" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="L2" t="n">
         <v>82.71777539290484</v>
       </c>
       <c r="M2" t="n">
+        <v>82.71777539290484</v>
+      </c>
+      <c r="N2" t="n">
+        <v>82.71777539290484</v>
+      </c>
+      <c r="O2" t="n">
         <v>82.71777539290478</v>
       </c>
-      <c r="N2" t="n">
-        <v>82.7177753929048</v>
-      </c>
-      <c r="O2" t="n">
-        <v>82.7177753929049</v>
-      </c>
       <c r="P2" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
     </row>
     <row r="3">
@@ -26744,16 +26744,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>585.0208306634618</v>
+      </c>
+      <c r="F3" t="n">
         <v>585.0208306634615</v>
       </c>
-      <c r="F3" t="n">
-        <v>585.0208306634614</v>
-      </c>
       <c r="G3" t="n">
-        <v>585.0208306634614</v>
+        <v>585.0208306634615</v>
       </c>
       <c r="H3" t="n">
-        <v>585.0208306634614</v>
+        <v>585.0208306634615</v>
       </c>
       <c r="I3" t="n">
         <v>585.0208306634611</v>
@@ -26796,25 +26796,25 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>915.0751954850734</v>
+        <v>915.0751954850738</v>
       </c>
       <c r="F4" t="n">
-        <v>915.0751954850734</v>
+        <v>915.0751954850737</v>
       </c>
       <c r="G4" t="n">
-        <v>915.0751954850734</v>
+        <v>915.075195485073</v>
       </c>
       <c r="H4" t="n">
-        <v>915.0751954850729</v>
+        <v>915.075195485073</v>
       </c>
       <c r="I4" t="n">
-        <v>915.075195485073</v>
+        <v>915.0751954850731</v>
       </c>
       <c r="J4" t="n">
         <v>915.0751954850731</v>
       </c>
       <c r="K4" t="n">
-        <v>915.075195485073</v>
+        <v>915.0751954850731</v>
       </c>
       <c r="L4" t="n">
         <v>915.0751954850731</v>
@@ -26823,13 +26823,13 @@
         <v>915.0751954850731</v>
       </c>
       <c r="N4" t="n">
-        <v>915.075195485073</v>
+        <v>915.0751954850731</v>
       </c>
       <c r="O4" t="n">
-        <v>915.0751954850725</v>
+        <v>915.0751954850731</v>
       </c>
       <c r="P4" t="n">
-        <v>915.0751954850731</v>
+        <v>915.0751954850734</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="F2" t="n">
-        <v>9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>57.76350514437847</v>
+        <v>57.76350514437858</v>
       </c>
       <c r="H2" t="n">
         <v>5.684341886080801e-14</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.95427024852617</v>
+        <v>24.9542702485262</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.76350514437856</v>
+        <v>57.76350514437858</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.95427024852627</v>
+        <v>24.95427024852614</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>585.0208306634615</v>
+        <v>585.0208306634618</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-1.972479371887455e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>674.0609066074144</v>
+        <v>674.0609066074147</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>674.0609066074144</v>
+        <v>674.0609066074147</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="K2" t="n">
-        <v>9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.76350514437847</v>
+        <v>57.76350514437858</v>
       </c>
       <c r="M2" t="n">
         <v>5.684341886080801e-14</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.95427024852617</v>
+        <v>24.9542702485262</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>674.0609066074144</v>
+        <v>674.0609066074147</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>333.2456655029306</v>
       </c>
       <c r="H2" t="n">
-        <v>267.0043036912184</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>61.60144464332727</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27473,10 +27473,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>111.8580727900695</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27515,7 +27515,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27549,10 +27549,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>37.52545250819722</v>
       </c>
       <c r="H4" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27628,7 +27628,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>319.1698855250446</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>187.2070202091597</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27692,19 +27692,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>156.6092913419999</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27749,7 +27749,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27758,10 +27758,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>51.8925447641455</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>38.23792762219048</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27819,7 +27819,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>69.0973563527908</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>336.9846966801742</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27895,25 +27895,25 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>259.542103988905</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27938,7 +27938,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -27989,16 +27989,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>202.2272522570082</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>115.4129376317904</v>
       </c>
     </row>
     <row r="10">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>110.3886183277161</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="C11" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="D11" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="E11" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="F11" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="G11" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="H11" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="I11" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>2.135189281195238</v>
+        <v>2.135189281195181</v>
       </c>
       <c r="S11" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="T11" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="U11" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="V11" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="W11" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="X11" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="Y11" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="C13" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="D13" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="E13" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="F13" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="G13" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="H13" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="I13" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="J13" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="K13" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="L13" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="M13" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="N13" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="O13" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="P13" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="R13" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="S13" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="T13" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="U13" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="V13" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="W13" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="X13" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="Y13" t="n">
-        <v>24.95427024852616</v>
+        <v>24.95427024852617</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="C14" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="D14" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="E14" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="F14" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="G14" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="H14" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="I14" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>2.135189281195267</v>
+        <v>2.135189281195238</v>
       </c>
       <c r="S14" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="T14" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="U14" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="V14" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="W14" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="X14" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="Y14" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="C16" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="D16" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="E16" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="F16" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="G16" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="H16" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="I16" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="J16" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="K16" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="L16" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="M16" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="N16" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="O16" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="P16" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="R16" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="S16" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="T16" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="U16" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="V16" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="W16" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="X16" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
       <c r="Y16" t="n">
-        <v>24.95427024852626</v>
+        <v>24.95427024852617</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C17" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D17" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E17" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F17" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G17" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H17" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I17" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>2.135189281195267</v>
+        <v>2.135189281195238</v>
       </c>
       <c r="S17" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T17" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U17" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V17" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W17" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X17" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y17" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C19" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D19" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E19" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F19" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G19" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H19" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I19" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J19" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="K19" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="L19" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="M19" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="N19" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="O19" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="P19" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Q19" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="R19" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="S19" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T19" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U19" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V19" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W19" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X19" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y19" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="C20" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="D20" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="E20" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="F20" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="G20" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="H20" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="I20" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>2.135189281195267</v>
+        <v>2.135189281195238</v>
       </c>
       <c r="S20" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="T20" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="U20" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="V20" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="W20" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="X20" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="Y20" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="C22" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="D22" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="E22" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="F22" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="G22" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="H22" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="I22" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="J22" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="K22" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="L22" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="M22" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="N22" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="O22" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="P22" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="Q22" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="R22" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="S22" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="T22" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="U22" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="V22" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="W22" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="X22" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="Y22" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="C23" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="D23" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="E23" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="F23" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="G23" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="H23" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="I23" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>2.135189281195352</v>
+        <v>2.135189281196253</v>
       </c>
       <c r="S23" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="T23" t="n">
-        <v>82.71777539290565</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="U23" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="V23" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="W23" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="X23" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="Y23" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="C25" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="D25" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="E25" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="F25" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="G25" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="H25" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="I25" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="J25" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="K25" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="L25" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="M25" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="N25" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="O25" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="P25" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="Q25" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="R25" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="S25" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="T25" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="U25" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="V25" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="W25" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="X25" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="Y25" t="n">
-        <v>82.71777539290483</v>
+        <v>82.71777539290481</v>
       </c>
     </row>
     <row r="26">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="C29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="D29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="E29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="F29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="G29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="H29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="I29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>2.135189281195352</v>
       </c>
       <c r="S29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="T29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="U29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="V29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="W29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="X29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="Y29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="C31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="D31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="E31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="F31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="G31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="H31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="I31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="J31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="K31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="L31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="M31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="N31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="O31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="P31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="R31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="S31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="T31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="U31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="V31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="W31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="X31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="Y31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290484</v>
       </c>
     </row>
     <row r="32">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="C35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="D35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="E35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="F35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="G35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="H35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="I35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>2.135189281195352</v>
       </c>
       <c r="S35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="T35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="U35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="V35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="W35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="X35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="Y35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290484</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="C37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="D37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="E37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="F37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="G37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="H37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="I37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="J37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="K37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="L37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="M37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="N37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="O37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="P37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="Q37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="R37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="S37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="T37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="U37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="V37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="W37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="X37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="Y37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290484</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="C38" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="D38" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="E38" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="F38" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="G38" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="H38" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="I38" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>2.135189281196702</v>
+        <v>2.135189281195352</v>
       </c>
       <c r="S38" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="T38" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="U38" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="V38" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="W38" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="X38" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="Y38" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290484</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="C40" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="D40" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="E40" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="F40" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="G40" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="H40" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="I40" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="J40" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="K40" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="L40" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="M40" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="N40" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="O40" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="P40" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="Q40" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="R40" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="S40" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="T40" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="U40" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="V40" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="W40" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="X40" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290484</v>
       </c>
       <c r="Y40" t="n">
-        <v>82.7177753929048</v>
+        <v>82.71777539290484</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="C41" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="D41" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="E41" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="F41" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="G41" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="H41" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="I41" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>2.135189281195352</v>
       </c>
       <c r="S41" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="T41" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="U41" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="V41" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="W41" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="X41" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Y41" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290478</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="C43" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="D43" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="E43" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="F43" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="G43" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="H43" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="I43" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="J43" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="K43" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="L43" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="M43" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="N43" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="O43" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="P43" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Q43" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="R43" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="S43" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="T43" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="U43" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="V43" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="W43" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="X43" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Y43" t="n">
-        <v>82.7177753929049</v>
+        <v>82.71777539290478</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="C44" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="D44" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="E44" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="F44" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="G44" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="H44" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="I44" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>2.135189281195352</v>
       </c>
       <c r="S44" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="T44" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="U44" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="V44" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="W44" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="X44" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Y44" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="C46" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="D46" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="E46" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="F46" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="G46" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="H46" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="I46" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="J46" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="K46" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="L46" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="M46" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="N46" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="O46" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="P46" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Q46" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="R46" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="S46" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="T46" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="U46" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="V46" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="W46" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="X46" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Y46" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.351842535330497</v>
+        <v>2.351842535330498</v>
       </c>
       <c r="H11" t="n">
-        <v>24.08580736495346</v>
+        <v>24.08580736495347</v>
       </c>
       <c r="I11" t="n">
-        <v>90.66940934332906</v>
+        <v>90.66940934332911</v>
       </c>
       <c r="J11" t="n">
-        <v>199.6096953830069</v>
+        <v>199.609695383007</v>
       </c>
       <c r="K11" t="n">
-        <v>299.1631899035469</v>
+        <v>299.163189903547</v>
       </c>
       <c r="L11" t="n">
-        <v>371.1383908941677</v>
+        <v>371.1383908941679</v>
       </c>
       <c r="M11" t="n">
-        <v>412.9629705818514</v>
+        <v>412.9629705818516</v>
       </c>
       <c r="N11" t="n">
-        <v>419.6451431853592</v>
+        <v>419.6451431853594</v>
       </c>
       <c r="O11" t="n">
-        <v>396.2590089746666</v>
+        <v>396.2590089746667</v>
       </c>
       <c r="P11" t="n">
-        <v>338.1978963836949</v>
+        <v>338.197896383695</v>
       </c>
       <c r="Q11" t="n">
-        <v>253.9725355871714</v>
+        <v>253.9725355871715</v>
       </c>
       <c r="R11" t="n">
-        <v>147.7339286599544</v>
+        <v>147.7339286599545</v>
       </c>
       <c r="S11" t="n">
-        <v>53.59261177384375</v>
+        <v>53.59261177384377</v>
       </c>
       <c r="T11" t="n">
         <v>10.29519069840926</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1881474028264397</v>
+        <v>0.1881474028264398</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.258346692370464</v>
+        <v>1.258346692370465</v>
       </c>
       <c r="H12" t="n">
-        <v>12.15297989736738</v>
+        <v>12.15297989736739</v>
       </c>
       <c r="I12" t="n">
-        <v>43.32465585573749</v>
+        <v>43.3246558557375</v>
       </c>
       <c r="J12" t="n">
         <v>118.8861671068078</v>
       </c>
       <c r="K12" t="n">
-        <v>203.1953954956289</v>
+        <v>203.195395495629</v>
       </c>
       <c r="L12" t="n">
-        <v>273.2212851131573</v>
+        <v>273.2212851131574</v>
       </c>
       <c r="M12" t="n">
-        <v>318.8363527115865</v>
+        <v>318.8363527115866</v>
       </c>
       <c r="N12" t="n">
-        <v>327.275002240685</v>
+        <v>327.2750022406851</v>
       </c>
       <c r="O12" t="n">
-        <v>299.3926886886867</v>
+        <v>299.3926886886869</v>
       </c>
       <c r="P12" t="n">
-        <v>240.2890275983565</v>
+        <v>240.2890275983566</v>
       </c>
       <c r="Q12" t="n">
-        <v>160.6268514682017</v>
+        <v>160.6268514682018</v>
       </c>
       <c r="R12" t="n">
-        <v>78.12787621577326</v>
+        <v>78.12787621577328</v>
       </c>
       <c r="S12" t="n">
-        <v>23.37323790433734</v>
+        <v>23.37323790433735</v>
       </c>
       <c r="T12" t="n">
-        <v>5.072020220563405</v>
+        <v>5.072020220563408</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08278596660332006</v>
+        <v>0.08278596660332009</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.054955596278373</v>
+        <v>1.054955596278374</v>
       </c>
       <c r="H13" t="n">
-        <v>9.379514301456815</v>
+        <v>9.379514301456819</v>
       </c>
       <c r="I13" t="n">
-        <v>31.7253919317169</v>
+        <v>31.72539193171692</v>
       </c>
       <c r="J13" t="n">
-        <v>74.58536065688098</v>
+        <v>74.58536065688101</v>
       </c>
       <c r="K13" t="n">
-        <v>122.5666592767055</v>
+        <v>122.5666592767056</v>
       </c>
       <c r="L13" t="n">
         <v>156.843125650332</v>
       </c>
       <c r="M13" t="n">
-        <v>165.3690849693453</v>
+        <v>165.3690849693454</v>
       </c>
       <c r="N13" t="n">
-        <v>161.4369777468533</v>
+        <v>161.4369777468534</v>
       </c>
       <c r="O13" t="n">
-        <v>149.1131782812377</v>
+        <v>149.1131782812378</v>
       </c>
       <c r="P13" t="n">
-        <v>127.5920841171588</v>
+        <v>127.5920841171589</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.33814543018269</v>
+        <v>88.33814543018272</v>
       </c>
       <c r="R13" t="n">
-        <v>47.43463981084393</v>
+        <v>47.43463981084395</v>
       </c>
       <c r="S13" t="n">
-        <v>18.38499889150582</v>
+        <v>18.38499889150583</v>
       </c>
       <c r="T13" t="n">
-        <v>4.507537547734866</v>
+        <v>4.507537547734867</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05754303252427496</v>
+        <v>0.05754303252427499</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,13 +31987,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.351842535330496</v>
+        <v>2.351842535330497</v>
       </c>
       <c r="H14" t="n">
-        <v>24.08580736495345</v>
+        <v>24.08580736495346</v>
       </c>
       <c r="I14" t="n">
-        <v>90.66940934332905</v>
+        <v>90.66940934332906</v>
       </c>
       <c r="J14" t="n">
         <v>199.6096953830069</v>
@@ -32002,31 +32002,31 @@
         <v>299.1631899035469</v>
       </c>
       <c r="L14" t="n">
-        <v>371.1383908941676</v>
+        <v>371.1383908941677</v>
       </c>
       <c r="M14" t="n">
-        <v>412.9629705818513</v>
+        <v>412.9629705818514</v>
       </c>
       <c r="N14" t="n">
-        <v>419.6451431853591</v>
+        <v>419.6451431853592</v>
       </c>
       <c r="O14" t="n">
-        <v>396.2590089746665</v>
+        <v>396.2590089746666</v>
       </c>
       <c r="P14" t="n">
-        <v>338.1978963836948</v>
+        <v>338.1978963836949</v>
       </c>
       <c r="Q14" t="n">
-        <v>253.9725355871713</v>
+        <v>253.9725355871714</v>
       </c>
       <c r="R14" t="n">
         <v>147.7339286599544</v>
       </c>
       <c r="S14" t="n">
-        <v>53.59261177384374</v>
+        <v>53.59261177384375</v>
       </c>
       <c r="T14" t="n">
-        <v>10.29519069840925</v>
+        <v>10.29519069840926</v>
       </c>
       <c r="U14" t="n">
         <v>0.1881474028264397</v>
@@ -32072,7 +32072,7 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I15" t="n">
-        <v>43.32465585573748</v>
+        <v>43.32465585573749</v>
       </c>
       <c r="J15" t="n">
         <v>118.8861671068078</v>
@@ -32081,13 +32081,13 @@
         <v>203.1953954956289</v>
       </c>
       <c r="L15" t="n">
-        <v>273.2212851131572</v>
+        <v>273.2212851131573</v>
       </c>
       <c r="M15" t="n">
-        <v>318.8363527115864</v>
+        <v>318.8363527115865</v>
       </c>
       <c r="N15" t="n">
-        <v>327.2750022406849</v>
+        <v>327.275002240685</v>
       </c>
       <c r="O15" t="n">
         <v>299.3926886886867</v>
@@ -32099,16 +32099,16 @@
         <v>160.6268514682017</v>
       </c>
       <c r="R15" t="n">
-        <v>78.12787621577324</v>
+        <v>78.12787621577326</v>
       </c>
       <c r="S15" t="n">
         <v>23.37323790433734</v>
       </c>
       <c r="T15" t="n">
-        <v>5.072020220563404</v>
+        <v>5.072020220563405</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08278596660332005</v>
+        <v>0.08278596660332006</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,13 +32148,13 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H16" t="n">
-        <v>9.379514301456814</v>
+        <v>9.379514301456815</v>
       </c>
       <c r="I16" t="n">
         <v>31.7253919317169</v>
       </c>
       <c r="J16" t="n">
-        <v>74.58536065688097</v>
+        <v>74.58536065688098</v>
       </c>
       <c r="K16" t="n">
         <v>122.5666592767055</v>
@@ -32175,16 +32175,16 @@
         <v>127.5920841171588</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.33814543018268</v>
+        <v>88.33814543018269</v>
       </c>
       <c r="R16" t="n">
-        <v>47.43463981084392</v>
+        <v>47.43463981084393</v>
       </c>
       <c r="S16" t="n">
         <v>18.38499889150582</v>
       </c>
       <c r="T16" t="n">
-        <v>4.507537547734865</v>
+        <v>4.507537547734866</v>
       </c>
       <c r="U16" t="n">
         <v>0.05754303252427496</v>
@@ -32224,13 +32224,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.351842535330496</v>
+        <v>2.351842535330497</v>
       </c>
       <c r="H17" t="n">
-        <v>24.08580736495345</v>
+        <v>24.08580736495346</v>
       </c>
       <c r="I17" t="n">
-        <v>90.66940934332905</v>
+        <v>90.66940934332906</v>
       </c>
       <c r="J17" t="n">
         <v>199.6096953830069</v>
@@ -32239,31 +32239,31 @@
         <v>299.1631899035469</v>
       </c>
       <c r="L17" t="n">
-        <v>371.1383908941676</v>
+        <v>371.1383908941677</v>
       </c>
       <c r="M17" t="n">
-        <v>412.9629705818513</v>
+        <v>412.9629705818514</v>
       </c>
       <c r="N17" t="n">
-        <v>419.6451431853591</v>
+        <v>419.6451431853592</v>
       </c>
       <c r="O17" t="n">
-        <v>396.2590089746665</v>
+        <v>396.2590089746666</v>
       </c>
       <c r="P17" t="n">
-        <v>338.1978963836948</v>
+        <v>338.1978963836949</v>
       </c>
       <c r="Q17" t="n">
-        <v>253.9725355871713</v>
+        <v>253.9725355871714</v>
       </c>
       <c r="R17" t="n">
         <v>147.7339286599544</v>
       </c>
       <c r="S17" t="n">
-        <v>53.59261177384374</v>
+        <v>53.59261177384375</v>
       </c>
       <c r="T17" t="n">
-        <v>10.29519069840925</v>
+        <v>10.29519069840926</v>
       </c>
       <c r="U17" t="n">
         <v>0.1881474028264397</v>
@@ -32309,7 +32309,7 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I18" t="n">
-        <v>43.32465585573748</v>
+        <v>43.32465585573749</v>
       </c>
       <c r="J18" t="n">
         <v>118.8861671068078</v>
@@ -32318,13 +32318,13 @@
         <v>203.1953954956289</v>
       </c>
       <c r="L18" t="n">
-        <v>273.2212851131572</v>
+        <v>273.2212851131573</v>
       </c>
       <c r="M18" t="n">
-        <v>318.8363527115864</v>
+        <v>318.8363527115865</v>
       </c>
       <c r="N18" t="n">
-        <v>327.2750022406849</v>
+        <v>327.275002240685</v>
       </c>
       <c r="O18" t="n">
         <v>299.3926886886867</v>
@@ -32336,16 +32336,16 @@
         <v>160.6268514682017</v>
       </c>
       <c r="R18" t="n">
-        <v>78.12787621577324</v>
+        <v>78.12787621577326</v>
       </c>
       <c r="S18" t="n">
         <v>23.37323790433734</v>
       </c>
       <c r="T18" t="n">
-        <v>5.072020220563404</v>
+        <v>5.072020220563405</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08278596660332005</v>
+        <v>0.08278596660332006</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,13 +32385,13 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H19" t="n">
-        <v>9.379514301456814</v>
+        <v>9.379514301456815</v>
       </c>
       <c r="I19" t="n">
         <v>31.7253919317169</v>
       </c>
       <c r="J19" t="n">
-        <v>74.58536065688097</v>
+        <v>74.58536065688098</v>
       </c>
       <c r="K19" t="n">
         <v>122.5666592767055</v>
@@ -32412,16 +32412,16 @@
         <v>127.5920841171588</v>
       </c>
       <c r="Q19" t="n">
-        <v>88.33814543018268</v>
+        <v>88.33814543018269</v>
       </c>
       <c r="R19" t="n">
-        <v>47.43463981084392</v>
+        <v>47.43463981084393</v>
       </c>
       <c r="S19" t="n">
         <v>18.38499889150582</v>
       </c>
       <c r="T19" t="n">
-        <v>4.507537547734865</v>
+        <v>4.507537547734866</v>
       </c>
       <c r="U19" t="n">
         <v>0.05754303252427496</v>
@@ -32461,13 +32461,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.351842535330496</v>
+        <v>2.351842535330497</v>
       </c>
       <c r="H20" t="n">
-        <v>24.08580736495345</v>
+        <v>24.08580736495346</v>
       </c>
       <c r="I20" t="n">
-        <v>90.66940934332905</v>
+        <v>90.66940934332906</v>
       </c>
       <c r="J20" t="n">
         <v>199.6096953830069</v>
@@ -32476,31 +32476,31 @@
         <v>299.1631899035469</v>
       </c>
       <c r="L20" t="n">
-        <v>371.1383908941676</v>
+        <v>371.1383908941677</v>
       </c>
       <c r="M20" t="n">
-        <v>412.9629705818513</v>
+        <v>412.9629705818514</v>
       </c>
       <c r="N20" t="n">
-        <v>419.6451431853591</v>
+        <v>419.6451431853592</v>
       </c>
       <c r="O20" t="n">
-        <v>396.2590089746665</v>
+        <v>396.2590089746666</v>
       </c>
       <c r="P20" t="n">
-        <v>338.1978963836948</v>
+        <v>338.1978963836949</v>
       </c>
       <c r="Q20" t="n">
-        <v>253.9725355871713</v>
+        <v>253.9725355871714</v>
       </c>
       <c r="R20" t="n">
         <v>147.7339286599544</v>
       </c>
       <c r="S20" t="n">
-        <v>53.59261177384374</v>
+        <v>53.59261177384375</v>
       </c>
       <c r="T20" t="n">
-        <v>10.29519069840925</v>
+        <v>10.29519069840926</v>
       </c>
       <c r="U20" t="n">
         <v>0.1881474028264397</v>
@@ -32546,7 +32546,7 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I21" t="n">
-        <v>43.32465585573748</v>
+        <v>43.32465585573749</v>
       </c>
       <c r="J21" t="n">
         <v>118.8861671068078</v>
@@ -32555,13 +32555,13 @@
         <v>203.1953954956289</v>
       </c>
       <c r="L21" t="n">
-        <v>273.2212851131572</v>
+        <v>273.2212851131573</v>
       </c>
       <c r="M21" t="n">
-        <v>318.8363527115864</v>
+        <v>318.8363527115865</v>
       </c>
       <c r="N21" t="n">
-        <v>327.2750022406849</v>
+        <v>327.275002240685</v>
       </c>
       <c r="O21" t="n">
         <v>299.3926886886867</v>
@@ -32573,16 +32573,16 @@
         <v>160.6268514682017</v>
       </c>
       <c r="R21" t="n">
-        <v>78.12787621577324</v>
+        <v>78.12787621577326</v>
       </c>
       <c r="S21" t="n">
         <v>23.37323790433734</v>
       </c>
       <c r="T21" t="n">
-        <v>5.072020220563404</v>
+        <v>5.072020220563405</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08278596660332005</v>
+        <v>0.08278596660332006</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,13 +32622,13 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H22" t="n">
-        <v>9.379514301456814</v>
+        <v>9.379514301456815</v>
       </c>
       <c r="I22" t="n">
         <v>31.7253919317169</v>
       </c>
       <c r="J22" t="n">
-        <v>74.58536065688097</v>
+        <v>74.58536065688098</v>
       </c>
       <c r="K22" t="n">
         <v>122.5666592767055</v>
@@ -32649,16 +32649,16 @@
         <v>127.5920841171588</v>
       </c>
       <c r="Q22" t="n">
-        <v>88.33814543018268</v>
+        <v>88.33814543018269</v>
       </c>
       <c r="R22" t="n">
-        <v>47.43463981084392</v>
+        <v>47.43463981084393</v>
       </c>
       <c r="S22" t="n">
         <v>18.38499889150582</v>
       </c>
       <c r="T22" t="n">
-        <v>4.507537547734865</v>
+        <v>4.507537547734866</v>
       </c>
       <c r="U22" t="n">
         <v>0.05754303252427496</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35033,7 +35033,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35261,13 +35261,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>187.6604060283944</v>
+        <v>187.6604060283945</v>
       </c>
       <c r="K11" t="n">
-        <v>403.2187514297311</v>
+        <v>403.2187514297312</v>
       </c>
       <c r="L11" t="n">
-        <v>553.0331904746308</v>
+        <v>553.0331904746311</v>
       </c>
       <c r="M11" t="n">
-        <v>632.1302708474111</v>
+        <v>632.1302708474113</v>
       </c>
       <c r="N11" t="n">
         <v>627.5790040007525</v>
       </c>
       <c r="O11" t="n">
-        <v>546.9609788157252</v>
+        <v>546.9609788157253</v>
       </c>
       <c r="P11" t="n">
-        <v>428.763608799908</v>
+        <v>428.7636087999081</v>
       </c>
       <c r="Q11" t="n">
-        <v>243.9818363726266</v>
+        <v>243.9818363726267</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>118.13957578055</v>
       </c>
       <c r="K12" t="n">
-        <v>110.0300330664206</v>
+        <v>329.8191935338486</v>
       </c>
       <c r="L12" t="n">
-        <v>505.5072506367422</v>
+        <v>505.5072506367424</v>
       </c>
       <c r="M12" t="n">
-        <v>642.4073825395681</v>
+        <v>176.7023187895683</v>
       </c>
       <c r="N12" t="n">
-        <v>675.2756645009051</v>
+        <v>274.5119356271399</v>
       </c>
       <c r="O12" t="n">
-        <v>550.6587635209719</v>
+        <v>550.658763520972</v>
       </c>
       <c r="P12" t="n">
-        <v>106.3146201840263</v>
+        <v>424.7773888239635</v>
       </c>
       <c r="Q12" t="n">
-        <v>20.64507738218023</v>
+        <v>230.7223651180294</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>6.180450788734362</v>
+        <v>6.180450788734404</v>
       </c>
       <c r="K13" t="n">
-        <v>125.2514376993488</v>
+        <v>125.2514376993489</v>
       </c>
       <c r="L13" t="n">
-        <v>209.3874211591743</v>
+        <v>209.3874211591744</v>
       </c>
       <c r="M13" t="n">
         <v>229.9072321797121</v>
       </c>
       <c r="N13" t="n">
-        <v>230.5234203746081</v>
+        <v>230.5234203746082</v>
       </c>
       <c r="O13" t="n">
         <v>198.6525764438036</v>
@@ -35586,7 +35586,7 @@
         <v>149.8249136305785</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.13037242701446</v>
+        <v>27.1303724270145</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,16 +35656,16 @@
         <v>632.1302708474111</v>
       </c>
       <c r="N14" t="n">
-        <v>627.5790040007523</v>
+        <v>627.5790040007525</v>
       </c>
       <c r="O14" t="n">
-        <v>546.9609788157251</v>
+        <v>546.9609788157252</v>
       </c>
       <c r="P14" t="n">
-        <v>428.7636087999079</v>
+        <v>428.763608799908</v>
       </c>
       <c r="Q14" t="n">
-        <v>243.9818363726265</v>
+        <v>243.9818363726266</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>65.35395652126988</v>
+        <v>270.9096387700368</v>
       </c>
       <c r="L15" t="n">
         <v>505.5072506367422</v>
       </c>
       <c r="M15" t="n">
-        <v>176.7023187895681</v>
+        <v>642.4073825395681</v>
       </c>
       <c r="N15" t="n">
-        <v>675.2756645009051</v>
+        <v>195.9332901573516</v>
       </c>
       <c r="O15" t="n">
-        <v>550.6587635209718</v>
+        <v>550.6587635209719</v>
       </c>
       <c r="P15" t="n">
         <v>424.7773888239634</v>
       </c>
       <c r="Q15" t="n">
-        <v>212.5634490373935</v>
+        <v>20.64507738218023</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>6.180450788734447</v>
+        <v>6.180450788734376</v>
       </c>
       <c r="K16" t="n">
-        <v>125.2514376993489</v>
+        <v>125.2514376993488</v>
       </c>
       <c r="L16" t="n">
-        <v>209.3874211591744</v>
+        <v>209.3874211591743</v>
       </c>
       <c r="M16" t="n">
         <v>229.9072321797121</v>
       </c>
       <c r="N16" t="n">
-        <v>230.5234203746082</v>
+        <v>230.5234203746081</v>
       </c>
       <c r="O16" t="n">
         <v>198.6525764438036</v>
@@ -35823,7 +35823,7 @@
         <v>149.8249136305785</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.13037242701455</v>
+        <v>27.13037242701447</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35893,16 +35893,16 @@
         <v>632.1302708474111</v>
       </c>
       <c r="N17" t="n">
-        <v>627.5790040007523</v>
+        <v>627.5790040007525</v>
       </c>
       <c r="O17" t="n">
-        <v>546.9609788157251</v>
+        <v>546.9609788157252</v>
       </c>
       <c r="P17" t="n">
-        <v>428.7636087999079</v>
+        <v>428.763608799908</v>
       </c>
       <c r="Q17" t="n">
-        <v>243.9818363726265</v>
+        <v>243.9818363726266</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>329.8191935338485</v>
+        <v>270.9096387700368</v>
       </c>
       <c r="L18" t="n">
         <v>505.5072506367422</v>
@@ -35975,13 +35975,13 @@
         <v>195.9332901573516</v>
       </c>
       <c r="O18" t="n">
-        <v>550.6587635209718</v>
+        <v>550.6587635209719</v>
       </c>
       <c r="P18" t="n">
-        <v>155.7905463243023</v>
+        <v>424.7773888239634</v>
       </c>
       <c r="Q18" t="n">
-        <v>230.7223651180293</v>
+        <v>20.64507738218023</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.94395593311292</v>
+        <v>63.94395593311296</v>
       </c>
       <c r="K19" t="n">
-        <v>183.0149428437273</v>
+        <v>183.0149428437274</v>
       </c>
       <c r="L19" t="n">
-        <v>267.1509263035528</v>
+        <v>267.1509263035529</v>
       </c>
       <c r="M19" t="n">
-        <v>287.6707373240906</v>
+        <v>287.6707373240907</v>
       </c>
       <c r="N19" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189867</v>
       </c>
       <c r="O19" t="n">
-        <v>256.4160815881821</v>
+        <v>256.4160815881822</v>
       </c>
       <c r="P19" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749571</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.89387757139302</v>
+        <v>84.89387757139306</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36130,16 +36130,16 @@
         <v>632.1302708474111</v>
       </c>
       <c r="N20" t="n">
-        <v>627.5790040007523</v>
+        <v>627.5790040007525</v>
       </c>
       <c r="O20" t="n">
-        <v>546.9609788157251</v>
+        <v>546.9609788157252</v>
       </c>
       <c r="P20" t="n">
-        <v>428.7636087999079</v>
+        <v>428.763608799908</v>
       </c>
       <c r="Q20" t="n">
-        <v>243.9818363726265</v>
+        <v>243.9818363726266</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>329.8191935338485</v>
+        <v>65.35395652126994</v>
       </c>
       <c r="L21" t="n">
         <v>505.5072506367422</v>
@@ -36209,13 +36209,13 @@
         <v>642.4073825395681</v>
       </c>
       <c r="N21" t="n">
-        <v>195.9332901573516</v>
+        <v>675.2756645009051</v>
       </c>
       <c r="O21" t="n">
-        <v>281.6719210213111</v>
+        <v>156.7964442442423</v>
       </c>
       <c r="P21" t="n">
-        <v>424.7773888239634</v>
+        <v>334.7757282700568</v>
       </c>
       <c r="Q21" t="n">
         <v>230.7223651180293</v>
@@ -36440,19 +36440,19 @@
         <v>329.8191935338484</v>
       </c>
       <c r="L24" t="n">
-        <v>505.507250636742</v>
+        <v>134.6669053332828</v>
       </c>
       <c r="M24" t="n">
-        <v>255.2809642593581</v>
+        <v>642.4073825395678</v>
       </c>
       <c r="N24" t="n">
-        <v>195.9332901573514</v>
+        <v>675.2756645009049</v>
       </c>
       <c r="O24" t="n">
-        <v>550.6587635209717</v>
+        <v>156.7964442442421</v>
       </c>
       <c r="P24" t="n">
-        <v>424.7773888239633</v>
+        <v>323.0112607803892</v>
       </c>
       <c r="Q24" t="n">
         <v>230.7223651180292</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.94395593311297</v>
+        <v>63.94395593311296</v>
       </c>
       <c r="K25" t="n">
         <v>183.0149428437274</v>
@@ -36525,7 +36525,7 @@
         <v>287.6707373240906</v>
       </c>
       <c r="N25" t="n">
-        <v>288.2869255189867</v>
+        <v>288.2869255189866</v>
       </c>
       <c r="O25" t="n">
         <v>256.4160815881821</v>
@@ -36534,7 +36534,7 @@
         <v>207.588418774957</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.89387757139306</v>
+        <v>84.89387757139305</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>44.67607654515129</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>65.35395652126977</v>
@@ -36680,7 +36680,7 @@
         <v>505.507250636742</v>
       </c>
       <c r="M27" t="n">
-        <v>642.4073825395678</v>
+        <v>368.6206904447822</v>
       </c>
       <c r="N27" t="n">
         <v>675.2756645009049</v>
@@ -36689,7 +36689,7 @@
         <v>550.6587635209717</v>
       </c>
       <c r="P27" t="n">
-        <v>106.3146201840261</v>
+        <v>424.7773888239633</v>
       </c>
       <c r="Q27" t="n">
         <v>20.64507738218012</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>118.1395757805499</v>
       </c>
       <c r="K30" t="n">
-        <v>270.7930906340311</v>
+        <v>329.8191935338484</v>
       </c>
       <c r="L30" t="n">
-        <v>134.6669053332828</v>
+        <v>505.507250636742</v>
       </c>
       <c r="M30" t="n">
         <v>642.4073825395678</v>
       </c>
       <c r="N30" t="n">
-        <v>675.2756645009049</v>
+        <v>202.6691911538711</v>
       </c>
       <c r="O30" t="n">
-        <v>550.6587635209717</v>
+        <v>156.7964442442421</v>
       </c>
       <c r="P30" t="n">
-        <v>106.3146201840261</v>
+        <v>424.7773888239633</v>
       </c>
       <c r="Q30" t="n">
         <v>230.7223651180292</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.9439559331129</v>
+        <v>63.94395593311299</v>
       </c>
       <c r="K31" t="n">
-        <v>183.0149428437273</v>
+        <v>183.0149428437274</v>
       </c>
       <c r="L31" t="n">
         <v>267.1509263035528</v>
@@ -36999,16 +36999,16 @@
         <v>287.6707373240906</v>
       </c>
       <c r="N31" t="n">
-        <v>288.2869255189865</v>
+        <v>288.2869255189867</v>
       </c>
       <c r="O31" t="n">
         <v>256.4160815881821</v>
       </c>
       <c r="P31" t="n">
-        <v>207.5884187749569</v>
+        <v>207.5884187749571</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.89387757139299</v>
+        <v>84.89387757139308</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>118.1395757805499</v>
       </c>
       <c r="K33" t="n">
-        <v>270.7930906340311</v>
+        <v>329.8191935338484</v>
       </c>
       <c r="L33" t="n">
-        <v>134.6669053332828</v>
+        <v>505.507250636742</v>
       </c>
       <c r="M33" t="n">
         <v>642.4073825395678</v>
       </c>
       <c r="N33" t="n">
-        <v>675.2756645009049</v>
+        <v>202.6691911538711</v>
       </c>
       <c r="O33" t="n">
-        <v>550.6587635209717</v>
+        <v>156.7964442442421</v>
       </c>
       <c r="P33" t="n">
-        <v>106.3146201840261</v>
+        <v>424.7773888239633</v>
       </c>
       <c r="Q33" t="n">
         <v>230.7223651180292</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>63.94395593311293</v>
+        <v>63.94395593311299</v>
       </c>
       <c r="K37" t="n">
-        <v>183.0149428437273</v>
+        <v>183.0149428437274</v>
       </c>
       <c r="L37" t="n">
         <v>267.1509263035528</v>
@@ -37473,16 +37473,16 @@
         <v>287.6707373240906</v>
       </c>
       <c r="N37" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189867</v>
       </c>
       <c r="O37" t="n">
         <v>256.4160815881821</v>
       </c>
       <c r="P37" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749571</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.89387757139302</v>
+        <v>84.89387757139308</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>63.94395593311295</v>
+        <v>63.94395593311299</v>
       </c>
       <c r="K40" t="n">
-        <v>183.0149428437273</v>
+        <v>183.0149428437274</v>
       </c>
       <c r="L40" t="n">
         <v>267.1509263035528</v>
@@ -37710,16 +37710,16 @@
         <v>287.6707373240906</v>
       </c>
       <c r="N40" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189867</v>
       </c>
       <c r="O40" t="n">
         <v>256.4160815881821</v>
       </c>
       <c r="P40" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749571</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.89387757139303</v>
+        <v>84.89387757139308</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>187.6604060283943</v>
       </c>
       <c r="K41" t="n">
-        <v>403.2187514297297</v>
+        <v>403.2187514297309</v>
       </c>
       <c r="L41" t="n">
         <v>553.0331904746306</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>118.1395757805499</v>
       </c>
       <c r="K42" t="n">
-        <v>65.35395652126977</v>
+        <v>329.8191935338484</v>
       </c>
       <c r="L42" t="n">
         <v>505.507250636742</v>
       </c>
       <c r="M42" t="n">
-        <v>642.4073825395678</v>
+        <v>255.2809642593581</v>
       </c>
       <c r="N42" t="n">
-        <v>675.2756645009049</v>
+        <v>195.9332901573514</v>
       </c>
       <c r="O42" t="n">
         <v>550.6587635209717</v>
       </c>
       <c r="P42" t="n">
-        <v>106.3146201840261</v>
+        <v>424.7773888239633</v>
       </c>
       <c r="Q42" t="n">
-        <v>65.32115392733155</v>
+        <v>230.7223651180292</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>63.94395593311305</v>
+        <v>63.94395593311293</v>
       </c>
       <c r="K43" t="n">
-        <v>183.0149428437275</v>
+        <v>183.0149428437273</v>
       </c>
       <c r="L43" t="n">
-        <v>267.1509263035529</v>
+        <v>267.1509263035528</v>
       </c>
       <c r="M43" t="n">
-        <v>287.6707373240907</v>
+        <v>287.6707373240906</v>
       </c>
       <c r="N43" t="n">
-        <v>288.2869255189867</v>
+        <v>288.2869255189866</v>
       </c>
       <c r="O43" t="n">
-        <v>256.4160815881822</v>
+        <v>256.4160815881821</v>
       </c>
       <c r="P43" t="n">
-        <v>207.5884187749571</v>
+        <v>207.588418774957</v>
       </c>
       <c r="Q43" t="n">
-        <v>84.89387757139313</v>
+        <v>84.89387757139302</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>187.6604060283943</v>
+        <v>187.6604060283968</v>
       </c>
       <c r="K44" t="n">
         <v>403.2187514297309</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>118.1395757805499</v>
       </c>
       <c r="K45" t="n">
-        <v>65.35395652126977</v>
+        <v>329.8191935338484</v>
       </c>
       <c r="L45" t="n">
         <v>505.507250636742</v>
       </c>
       <c r="M45" t="n">
-        <v>642.4073825395678</v>
+        <v>255.280964259358</v>
       </c>
       <c r="N45" t="n">
-        <v>675.2756645009049</v>
+        <v>195.9332901573514</v>
       </c>
       <c r="O45" t="n">
         <v>550.6587635209717</v>
       </c>
       <c r="P45" t="n">
-        <v>150.9906967291775</v>
+        <v>424.7773888239633</v>
       </c>
       <c r="Q45" t="n">
-        <v>20.64507738218012</v>
+        <v>230.7223651180292</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>63.94395593311299</v>
+        <v>63.94395593311293</v>
       </c>
       <c r="K46" t="n">
-        <v>183.0149428437274</v>
+        <v>183.0149428437273</v>
       </c>
       <c r="L46" t="n">
         <v>267.1509263035528</v>
@@ -38184,16 +38184,16 @@
         <v>287.6707373240906</v>
       </c>
       <c r="N46" t="n">
-        <v>288.2869255189867</v>
+        <v>288.2869255189866</v>
       </c>
       <c r="O46" t="n">
         <v>256.4160815881821</v>
       </c>
       <c r="P46" t="n">
-        <v>207.5884187749571</v>
+        <v>207.588418774957</v>
       </c>
       <c r="Q46" t="n">
-        <v>84.89387757139308</v>
+        <v>84.89387757139302</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
